--- a/data/srf.v1.xlsx
+++ b/data/srf.v1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="223">
   <si>
     <t>I.</t>
   </si>
@@ -1015,52 +1015,7 @@
     <t>3948-1</t>
   </si>
   <si>
-    <t>Dominic Sisneros</t>
-  </si>
-  <si>
-    <t>801-320-2377</t>
-  </si>
-  <si>
-    <t>1219NM0006</t>
-  </si>
-  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>BTF</t>
-  </si>
-  <si>
-    <t>RTR</t>
-  </si>
-  <si>
-    <t>082EH</t>
-  </si>
-  <si>
-    <t>Bountiful</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>1201 North 4000 W St</t>
-  </si>
-  <si>
-    <t>Salt Lake City, UT  84116</t>
-  </si>
-  <si>
-    <t>Gary Brooks</t>
-  </si>
-  <si>
-    <t>801-325-9828</t>
-  </si>
-  <si>
-    <t>Call 24 hours in advance</t>
-  </si>
-  <si>
-    <t>Crown Consulting</t>
-  </si>
-  <si>
-    <t>Please include V2 alignment Test Fixture</t>
   </si>
   <si>
     <t>WWT15</t>
@@ -1481,7 +1436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1831,9 +1786,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1841,12 +1793,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1855,12 +1806,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1905,20 +1850,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1927,14 +1860,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1964,38 +1889,52 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2004,10 +1943,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2029,6 +1964,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2341,8 +2288,8 @@
   </sheetPr>
   <dimension ref="A1:BA104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA83" sqref="AA83:AX89"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU42" sqref="AU42:AV42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2411,31 +2358,29 @@
       <c r="AB1" s="25"/>
       <c r="AC1" s="26"/>
       <c r="AD1" s="25"/>
-      <c r="AE1" s="204"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="204"/>
-      <c r="AH1" s="204"/>
-      <c r="AI1" s="204"/>
-      <c r="AJ1" s="204"/>
-      <c r="AK1" s="204"/>
-      <c r="AL1" s="204"/>
-      <c r="AM1" s="204"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="198"/>
+      <c r="AG1" s="198"/>
+      <c r="AH1" s="198"/>
+      <c r="AI1" s="198"/>
+      <c r="AJ1" s="198"/>
+      <c r="AK1" s="198"/>
+      <c r="AL1" s="198"/>
+      <c r="AM1" s="198"/>
       <c r="AN1" s="25"/>
       <c r="AO1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="AP1" s="25"/>
-      <c r="AQ1" s="203">
-        <v>43885</v>
-      </c>
-      <c r="AR1" s="203"/>
-      <c r="AS1" s="203"/>
-      <c r="AT1" s="203"/>
-      <c r="AU1" s="203"/>
-      <c r="AV1" s="205" t="s">
+      <c r="AQ1" s="202"/>
+      <c r="AR1" s="202"/>
+      <c r="AS1" s="202"/>
+      <c r="AT1" s="202"/>
+      <c r="AU1" s="202"/>
+      <c r="AV1" s="199" t="s">
         <v>100</v>
       </c>
-      <c r="AW1" s="205"/>
+      <c r="AW1" s="199"/>
       <c r="AX1" s="27">
         <v>2</v>
       </c>
@@ -2505,21 +2450,19 @@
       <c r="F3" s="32"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="193" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="193"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="193"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="193"/>
-      <c r="U3" s="193"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3" t="s">
         <v>3</v>
@@ -2527,9 +2470,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AA3" s="148" t="s">
-        <v>222</v>
-      </c>
+      <c r="AA3" s="148"/>
       <c r="AB3" s="148"/>
       <c r="AC3" s="148"/>
       <c r="AD3" s="148"/>
@@ -2547,16 +2488,14 @@
         <v>163</v>
       </c>
       <c r="AP3" s="3"/>
-      <c r="AQ3" s="148" t="s">
-        <v>223</v>
-      </c>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="148"/>
-      <c r="AT3" s="148"/>
-      <c r="AU3" s="148"/>
-      <c r="AV3" s="148"/>
-      <c r="AW3" s="148"/>
-      <c r="AX3" s="148"/>
+      <c r="AQ3" s="216"/>
+      <c r="AR3" s="216"/>
+      <c r="AS3" s="216"/>
+      <c r="AT3" s="216"/>
+      <c r="AU3" s="216"/>
+      <c r="AV3" s="216"/>
+      <c r="AW3" s="216"/>
+      <c r="AX3" s="216"/>
       <c r="AY3" s="4"/>
     </row>
     <row r="4" spans="1:51" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2633,7 +2572,7 @@
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
       <c r="P5" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="R5" s="37" t="s">
         <v>33</v>
@@ -2666,16 +2605,14 @@
         <v>37</v>
       </c>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="148">
-        <v>1103807</v>
-      </c>
-      <c r="AR5" s="148"/>
-      <c r="AS5" s="148"/>
-      <c r="AT5" s="148"/>
-      <c r="AU5" s="148"/>
-      <c r="AV5" s="148"/>
-      <c r="AW5" s="148"/>
-      <c r="AX5" s="148"/>
+      <c r="AQ5" s="216"/>
+      <c r="AR5" s="216"/>
+      <c r="AS5" s="216"/>
+      <c r="AT5" s="216"/>
+      <c r="AU5" s="216"/>
+      <c r="AV5" s="216"/>
+      <c r="AW5" s="216"/>
+      <c r="AX5" s="216"/>
       <c r="AY5" s="4"/>
     </row>
     <row r="6" spans="1:51" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2800,9 +2737,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="148" t="s">
-        <v>225</v>
-      </c>
+      <c r="F8" s="148"/>
       <c r="G8" s="148"/>
       <c r="H8" s="148"/>
       <c r="I8" s="148"/>
@@ -2817,9 +2752,7 @@
       <c r="R8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="148" t="s">
-        <v>226</v>
-      </c>
+      <c r="S8" s="148"/>
       <c r="T8" s="148"/>
       <c r="U8" s="148"/>
       <c r="V8" s="148"/>
@@ -2834,7 +2767,7 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="148" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="AF8" s="148"/>
       <c r="AG8" s="148"/>
@@ -2844,9 +2777,7 @@
       <c r="AP8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AQ8" s="148" t="s">
-        <v>227</v>
-      </c>
+      <c r="AQ8" s="148"/>
       <c r="AR8" s="148"/>
       <c r="AS8" s="148"/>
       <c r="AT8" s="148"/>
@@ -2916,9 +2847,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="148" t="s">
-        <v>228</v>
-      </c>
+      <c r="E10" s="148"/>
       <c r="F10" s="148"/>
       <c r="G10" s="148"/>
       <c r="H10" s="148"/>
@@ -2936,9 +2865,7 @@
         <v>10</v>
       </c>
       <c r="T10" s="3"/>
-      <c r="U10" s="148" t="s">
-        <v>229</v>
-      </c>
+      <c r="U10" s="148"/>
       <c r="V10" s="148"/>
       <c r="W10" s="148"/>
       <c r="X10" s="148"/>
@@ -2952,26 +2879,24 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="148">
-        <v>8467</v>
-      </c>
-      <c r="AH10" s="148"/>
-      <c r="AI10" s="148"/>
-      <c r="AJ10" s="148"/>
-      <c r="AK10" s="148"/>
-      <c r="AL10" s="148"/>
-      <c r="AM10" s="148"/>
+      <c r="AG10" s="216"/>
+      <c r="AH10" s="216"/>
+      <c r="AI10" s="216"/>
+      <c r="AJ10" s="216"/>
+      <c r="AK10" s="216"/>
+      <c r="AL10" s="216"/>
+      <c r="AM10" s="216"/>
       <c r="AN10" s="32"/>
       <c r="AO10" s="32"/>
       <c r="AP10" s="3"/>
-      <c r="AQ10" s="171"/>
-      <c r="AR10" s="171"/>
-      <c r="AS10" s="171"/>
-      <c r="AT10" s="171"/>
-      <c r="AU10" s="171"/>
-      <c r="AV10" s="171"/>
-      <c r="AW10" s="171"/>
-      <c r="AX10" s="171"/>
+      <c r="AQ10" s="168"/>
+      <c r="AR10" s="168"/>
+      <c r="AS10" s="168"/>
+      <c r="AT10" s="168"/>
+      <c r="AU10" s="168"/>
+      <c r="AV10" s="168"/>
+      <c r="AW10" s="168"/>
+      <c r="AX10" s="168"/>
       <c r="AY10" s="4"/>
     </row>
     <row r="11" spans="1:51" ht="6.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -3046,9 +2971,7 @@
         <v>13</v>
       </c>
       <c r="O12" s="40"/>
-      <c r="P12" s="198">
-        <v>44046</v>
-      </c>
+      <c r="P12" s="189"/>
       <c r="Q12" s="148"/>
       <c r="R12" s="148"/>
       <c r="S12" s="148"/>
@@ -3060,16 +2983,14 @@
       <c r="Y12" s="148"/>
       <c r="Z12" s="148"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="172" t="s">
+      <c r="AB12" s="169" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="172"/>
-      <c r="AG12" s="198">
-        <v>44088</v>
-      </c>
+      <c r="AC12" s="169"/>
+      <c r="AD12" s="169"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="189"/>
       <c r="AH12" s="148"/>
       <c r="AI12" s="148"/>
       <c r="AJ12" s="148"/>
@@ -3081,10 +3002,8 @@
         <v>14</v>
       </c>
       <c r="AP12" s="30"/>
-      <c r="AQ12" s="198">
-        <v>44099</v>
-      </c>
-      <c r="AR12" s="198"/>
+      <c r="AQ12" s="189"/>
+      <c r="AR12" s="189"/>
       <c r="AS12" s="148"/>
       <c r="AT12" s="148"/>
       <c r="AU12" s="148"/>
@@ -3206,197 +3125,189 @@
     <row r="15" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="29"/>
-      <c r="C15" s="195" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="195"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="195"/>
-      <c r="L15" s="195"/>
-      <c r="M15" s="195"/>
-      <c r="N15" s="195"/>
-      <c r="O15" s="195"/>
-      <c r="P15" s="195"/>
-      <c r="Q15" s="195"/>
-      <c r="R15" s="195"/>
-      <c r="S15" s="195"/>
-      <c r="T15" s="195"/>
-      <c r="U15" s="195"/>
-      <c r="V15" s="195"/>
-      <c r="W15" s="195"/>
-      <c r="X15" s="195"/>
-      <c r="Y15" s="195"/>
-      <c r="Z15" s="195"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="186"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="186"/>
+      <c r="S15" s="186"/>
+      <c r="T15" s="186"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="186"/>
+      <c r="Y15" s="186"/>
+      <c r="Z15" s="186"/>
       <c r="AA15" s="35"/>
-      <c r="AB15" s="195" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC15" s="195"/>
-      <c r="AD15" s="195"/>
-      <c r="AE15" s="195"/>
-      <c r="AF15" s="195"/>
-      <c r="AG15" s="195"/>
-      <c r="AH15" s="195"/>
-      <c r="AI15" s="195"/>
-      <c r="AJ15" s="195"/>
-      <c r="AK15" s="195"/>
-      <c r="AL15" s="195"/>
-      <c r="AM15" s="195"/>
-      <c r="AN15" s="195"/>
-      <c r="AO15" s="195"/>
-      <c r="AP15" s="195"/>
-      <c r="AQ15" s="195"/>
-      <c r="AR15" s="195"/>
-      <c r="AS15" s="195"/>
-      <c r="AT15" s="195"/>
-      <c r="AU15" s="195"/>
-      <c r="AV15" s="195"/>
-      <c r="AW15" s="195"/>
-      <c r="AX15" s="195"/>
+      <c r="AB15" s="186"/>
+      <c r="AC15" s="186"/>
+      <c r="AD15" s="186"/>
+      <c r="AE15" s="186"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="186"/>
+      <c r="AH15" s="186"/>
+      <c r="AI15" s="186"/>
+      <c r="AJ15" s="186"/>
+      <c r="AK15" s="186"/>
+      <c r="AL15" s="186"/>
+      <c r="AM15" s="186"/>
+      <c r="AN15" s="186"/>
+      <c r="AO15" s="186"/>
+      <c r="AP15" s="186"/>
+      <c r="AQ15" s="186"/>
+      <c r="AR15" s="186"/>
+      <c r="AS15" s="186"/>
+      <c r="AT15" s="186"/>
+      <c r="AU15" s="186"/>
+      <c r="AV15" s="186"/>
+      <c r="AW15" s="186"/>
+      <c r="AX15" s="186"/>
       <c r="AY15" s="4"/>
     </row>
     <row r="16" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="29"/>
-      <c r="C16" s="194" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="194"/>
-      <c r="N16" s="194"/>
-      <c r="O16" s="194"/>
-      <c r="P16" s="194"/>
-      <c r="Q16" s="194"/>
-      <c r="R16" s="194"/>
-      <c r="S16" s="194"/>
-      <c r="T16" s="194"/>
-      <c r="U16" s="194"/>
-      <c r="V16" s="194"/>
-      <c r="W16" s="194"/>
-      <c r="X16" s="194"/>
-      <c r="Y16" s="194"/>
-      <c r="Z16" s="194"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="185"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="185"/>
+      <c r="L16" s="185"/>
+      <c r="M16" s="185"/>
+      <c r="N16" s="185"/>
+      <c r="O16" s="185"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="185"/>
+      <c r="R16" s="185"/>
+      <c r="S16" s="185"/>
+      <c r="T16" s="185"/>
+      <c r="U16" s="185"/>
+      <c r="V16" s="185"/>
+      <c r="W16" s="185"/>
+      <c r="X16" s="185"/>
+      <c r="Y16" s="185"/>
+      <c r="Z16" s="185"/>
       <c r="AA16" s="35"/>
-      <c r="AB16" s="194" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC16" s="194"/>
-      <c r="AD16" s="194"/>
-      <c r="AE16" s="194"/>
-      <c r="AF16" s="194"/>
-      <c r="AG16" s="194"/>
-      <c r="AH16" s="194"/>
-      <c r="AI16" s="194"/>
-      <c r="AJ16" s="194"/>
-      <c r="AK16" s="194"/>
-      <c r="AL16" s="194"/>
-      <c r="AM16" s="194"/>
-      <c r="AN16" s="194"/>
-      <c r="AO16" s="194"/>
-      <c r="AP16" s="194"/>
-      <c r="AQ16" s="194"/>
-      <c r="AR16" s="194"/>
-      <c r="AS16" s="194"/>
-      <c r="AT16" s="194"/>
-      <c r="AU16" s="194"/>
-      <c r="AV16" s="194"/>
-      <c r="AW16" s="194"/>
-      <c r="AX16" s="194"/>
+      <c r="AB16" s="185"/>
+      <c r="AC16" s="185"/>
+      <c r="AD16" s="185"/>
+      <c r="AE16" s="185"/>
+      <c r="AF16" s="185"/>
+      <c r="AG16" s="185"/>
+      <c r="AH16" s="185"/>
+      <c r="AI16" s="185"/>
+      <c r="AJ16" s="185"/>
+      <c r="AK16" s="185"/>
+      <c r="AL16" s="185"/>
+      <c r="AM16" s="185"/>
+      <c r="AN16" s="185"/>
+      <c r="AO16" s="185"/>
+      <c r="AP16" s="185"/>
+      <c r="AQ16" s="185"/>
+      <c r="AR16" s="185"/>
+      <c r="AS16" s="185"/>
+      <c r="AT16" s="185"/>
+      <c r="AU16" s="185"/>
+      <c r="AV16" s="185"/>
+      <c r="AW16" s="185"/>
+      <c r="AX16" s="185"/>
       <c r="AY16" s="4"/>
     </row>
     <row r="17" spans="1:53" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="29"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="194"/>
-      <c r="N17" s="194"/>
-      <c r="O17" s="194"/>
-      <c r="P17" s="194"/>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="194"/>
-      <c r="S17" s="194"/>
-      <c r="T17" s="194"/>
-      <c r="U17" s="194"/>
-      <c r="V17" s="194"/>
-      <c r="W17" s="194"/>
-      <c r="X17" s="194"/>
-      <c r="Y17" s="194"/>
-      <c r="Z17" s="194"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="185"/>
+      <c r="L17" s="185"/>
+      <c r="M17" s="185"/>
+      <c r="N17" s="185"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="185"/>
+      <c r="W17" s="185"/>
+      <c r="X17" s="185"/>
+      <c r="Y17" s="185"/>
+      <c r="Z17" s="185"/>
       <c r="AA17" s="35"/>
-      <c r="AB17" s="194"/>
-      <c r="AC17" s="194"/>
-      <c r="AD17" s="194"/>
-      <c r="AE17" s="194"/>
-      <c r="AF17" s="194"/>
-      <c r="AG17" s="194"/>
-      <c r="AH17" s="194"/>
-      <c r="AI17" s="194"/>
-      <c r="AJ17" s="194"/>
-      <c r="AK17" s="194"/>
-      <c r="AL17" s="194"/>
-      <c r="AM17" s="194"/>
-      <c r="AN17" s="194"/>
-      <c r="AO17" s="194"/>
-      <c r="AP17" s="194"/>
-      <c r="AQ17" s="194"/>
-      <c r="AR17" s="194"/>
-      <c r="AS17" s="194"/>
-      <c r="AT17" s="194"/>
-      <c r="AU17" s="194"/>
-      <c r="AV17" s="194"/>
-      <c r="AW17" s="194"/>
-      <c r="AX17" s="194"/>
+      <c r="AB17" s="185"/>
+      <c r="AC17" s="185"/>
+      <c r="AD17" s="185"/>
+      <c r="AE17" s="185"/>
+      <c r="AF17" s="185"/>
+      <c r="AG17" s="185"/>
+      <c r="AH17" s="185"/>
+      <c r="AI17" s="185"/>
+      <c r="AJ17" s="185"/>
+      <c r="AK17" s="185"/>
+      <c r="AL17" s="185"/>
+      <c r="AM17" s="185"/>
+      <c r="AN17" s="185"/>
+      <c r="AO17" s="185"/>
+      <c r="AP17" s="185"/>
+      <c r="AQ17" s="185"/>
+      <c r="AR17" s="185"/>
+      <c r="AS17" s="185"/>
+      <c r="AT17" s="185"/>
+      <c r="AU17" s="185"/>
+      <c r="AV17" s="185"/>
+      <c r="AW17" s="185"/>
+      <c r="AX17" s="185"/>
       <c r="AY17" s="4"/>
     </row>
     <row r="18" spans="1:53" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="194"/>
-      <c r="O18" s="194"/>
-      <c r="P18" s="194"/>
-      <c r="Q18" s="194"/>
-      <c r="R18" s="194"/>
-      <c r="S18" s="194"/>
-      <c r="T18" s="194"/>
-      <c r="U18" s="194"/>
-      <c r="V18" s="194"/>
-      <c r="W18" s="194"/>
-      <c r="X18" s="194"/>
-      <c r="Y18" s="194"/>
-      <c r="Z18" s="194"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="185"/>
+      <c r="N18" s="185"/>
+      <c r="O18" s="185"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="185"/>
+      <c r="R18" s="185"/>
+      <c r="S18" s="185"/>
+      <c r="T18" s="185"/>
+      <c r="U18" s="185"/>
+      <c r="V18" s="185"/>
+      <c r="W18" s="185"/>
+      <c r="X18" s="185"/>
+      <c r="Y18" s="185"/>
+      <c r="Z18" s="185"/>
       <c r="AA18" s="35"/>
       <c r="AB18" s="146"/>
       <c r="AC18" s="146"/>
@@ -3426,58 +3337,56 @@
     <row r="19" spans="1:53" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="29"/>
-      <c r="C19" s="199" t="s">
+      <c r="C19" s="190" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="199"/>
-      <c r="E19" s="199"/>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="199"/>
-      <c r="L19" s="199"/>
-      <c r="M19" s="199"/>
-      <c r="N19" s="200" t="s">
-        <v>234</v>
-      </c>
-      <c r="O19" s="200"/>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="200"/>
-      <c r="R19" s="200"/>
-      <c r="S19" s="200"/>
-      <c r="T19" s="200"/>
-      <c r="U19" s="200"/>
-      <c r="V19" s="200"/>
-      <c r="W19" s="200"/>
-      <c r="X19" s="200"/>
-      <c r="Y19" s="200"/>
-      <c r="Z19" s="200"/>
-      <c r="AA19" s="200"/>
-      <c r="AB19" s="200"/>
-      <c r="AC19" s="200"/>
-      <c r="AD19" s="200"/>
-      <c r="AE19" s="200"/>
-      <c r="AF19" s="200"/>
-      <c r="AG19" s="200"/>
-      <c r="AH19" s="200"/>
-      <c r="AI19" s="200"/>
-      <c r="AJ19" s="200"/>
-      <c r="AK19" s="200"/>
-      <c r="AL19" s="200"/>
-      <c r="AM19" s="200"/>
-      <c r="AN19" s="200"/>
-      <c r="AO19" s="200"/>
-      <c r="AP19" s="200"/>
-      <c r="AQ19" s="200"/>
-      <c r="AR19" s="200"/>
-      <c r="AS19" s="200"/>
-      <c r="AT19" s="200"/>
-      <c r="AU19" s="200"/>
-      <c r="AV19" s="200"/>
-      <c r="AW19" s="200"/>
-      <c r="AX19" s="200"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="190"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="191"/>
+      <c r="Q19" s="191"/>
+      <c r="R19" s="191"/>
+      <c r="S19" s="191"/>
+      <c r="T19" s="191"/>
+      <c r="U19" s="191"/>
+      <c r="V19" s="191"/>
+      <c r="W19" s="191"/>
+      <c r="X19" s="191"/>
+      <c r="Y19" s="191"/>
+      <c r="Z19" s="191"/>
+      <c r="AA19" s="191"/>
+      <c r="AB19" s="191"/>
+      <c r="AC19" s="191"/>
+      <c r="AD19" s="191"/>
+      <c r="AE19" s="191"/>
+      <c r="AF19" s="191"/>
+      <c r="AG19" s="191"/>
+      <c r="AH19" s="191"/>
+      <c r="AI19" s="191"/>
+      <c r="AJ19" s="191"/>
+      <c r="AK19" s="191"/>
+      <c r="AL19" s="191"/>
+      <c r="AM19" s="191"/>
+      <c r="AN19" s="191"/>
+      <c r="AO19" s="191"/>
+      <c r="AP19" s="191"/>
+      <c r="AQ19" s="191"/>
+      <c r="AR19" s="191"/>
+      <c r="AS19" s="191"/>
+      <c r="AT19" s="191"/>
+      <c r="AU19" s="191"/>
+      <c r="AV19" s="191"/>
+      <c r="AW19" s="191"/>
+      <c r="AX19" s="191"/>
       <c r="AY19" s="4"/>
     </row>
     <row r="20" spans="1:53" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3695,9 +3604,7 @@
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AQ23" s="3"/>
-      <c r="AR23" s="41" t="s">
-        <v>224</v>
-      </c>
+      <c r="AR23" s="41"/>
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
@@ -3793,9 +3700,7 @@
         <v>16</v>
       </c>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="41" t="s">
-        <v>224</v>
-      </c>
+      <c r="AB25" s="41"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
@@ -3898,9 +3803,7 @@
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-      <c r="Q27" s="41" t="s">
-        <v>224</v>
-      </c>
+      <c r="Q27" s="41"/>
       <c r="R27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="35"/>
@@ -3932,9 +3835,7 @@
       <c r="AO27" s="3"/>
       <c r="AP27" s="3"/>
       <c r="AQ27" s="3"/>
-      <c r="AR27" s="41" t="s">
-        <v>224</v>
-      </c>
+      <c r="AR27" s="41"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
@@ -4007,50 +3908,48 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="196" t="s">
-        <v>235</v>
-      </c>
-      <c r="J29" s="196"/>
-      <c r="K29" s="196"/>
-      <c r="L29" s="196"/>
-      <c r="M29" s="196"/>
-      <c r="N29" s="196"/>
-      <c r="O29" s="196"/>
-      <c r="P29" s="196"/>
-      <c r="Q29" s="196"/>
-      <c r="R29" s="196"/>
-      <c r="S29" s="196"/>
-      <c r="T29" s="196"/>
-      <c r="U29" s="196"/>
-      <c r="V29" s="196"/>
-      <c r="W29" s="196"/>
-      <c r="X29" s="196"/>
-      <c r="Y29" s="196"/>
-      <c r="Z29" s="196"/>
-      <c r="AA29" s="196"/>
-      <c r="AB29" s="196"/>
-      <c r="AC29" s="196"/>
-      <c r="AD29" s="196"/>
-      <c r="AE29" s="196"/>
-      <c r="AF29" s="196"/>
-      <c r="AG29" s="196"/>
-      <c r="AH29" s="196"/>
-      <c r="AI29" s="196"/>
-      <c r="AJ29" s="196"/>
-      <c r="AK29" s="196"/>
-      <c r="AL29" s="196"/>
-      <c r="AM29" s="196"/>
-      <c r="AN29" s="196"/>
-      <c r="AO29" s="196"/>
-      <c r="AP29" s="196"/>
-      <c r="AQ29" s="196"/>
-      <c r="AR29" s="196"/>
-      <c r="AS29" s="196"/>
-      <c r="AT29" s="196"/>
-      <c r="AU29" s="196"/>
-      <c r="AV29" s="196"/>
-      <c r="AW29" s="196"/>
-      <c r="AX29" s="196"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="187"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="187"/>
+      <c r="Z29" s="187"/>
+      <c r="AA29" s="187"/>
+      <c r="AB29" s="187"/>
+      <c r="AC29" s="187"/>
+      <c r="AD29" s="187"/>
+      <c r="AE29" s="187"/>
+      <c r="AF29" s="187"/>
+      <c r="AG29" s="187"/>
+      <c r="AH29" s="187"/>
+      <c r="AI29" s="187"/>
+      <c r="AJ29" s="187"/>
+      <c r="AK29" s="187"/>
+      <c r="AL29" s="187"/>
+      <c r="AM29" s="187"/>
+      <c r="AN29" s="187"/>
+      <c r="AO29" s="187"/>
+      <c r="AP29" s="187"/>
+      <c r="AQ29" s="187"/>
+      <c r="AR29" s="187"/>
+      <c r="AS29" s="187"/>
+      <c r="AT29" s="187"/>
+      <c r="AU29" s="187"/>
+      <c r="AV29" s="187"/>
+      <c r="AW29" s="187"/>
+      <c r="AX29" s="187"/>
       <c r="AY29" s="4"/>
     </row>
     <row r="30" spans="1:53" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4166,176 +4065,172 @@
     <row r="32" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="29"/>
-      <c r="C32" s="188" t="s">
+      <c r="C32" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="188"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="188"/>
-      <c r="J32" s="188"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="188"/>
-      <c r="N32" s="188"/>
-      <c r="O32" s="188"/>
-      <c r="P32" s="188"/>
-      <c r="Q32" s="188"/>
-      <c r="R32" s="188"/>
-      <c r="S32" s="188"/>
-      <c r="T32" s="188"/>
-      <c r="U32" s="188"/>
-      <c r="V32" s="188"/>
-      <c r="W32" s="188"/>
-      <c r="X32" s="188"/>
-      <c r="Y32" s="188"/>
-      <c r="Z32" s="188"/>
-      <c r="AA32" s="188"/>
-      <c r="AB32" s="188"/>
-      <c r="AC32" s="188"/>
-      <c r="AD32" s="188"/>
-      <c r="AE32" s="188"/>
-      <c r="AF32" s="188"/>
-      <c r="AG32" s="188"/>
-      <c r="AH32" s="188"/>
-      <c r="AI32" s="188"/>
-      <c r="AJ32" s="188"/>
-      <c r="AK32" s="188"/>
-      <c r="AL32" s="188"/>
-      <c r="AM32" s="188"/>
-      <c r="AN32" s="188"/>
-      <c r="AO32" s="188"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="181"/>
+      <c r="S32" s="181"/>
+      <c r="T32" s="181"/>
+      <c r="U32" s="181"/>
+      <c r="V32" s="181"/>
+      <c r="W32" s="181"/>
+      <c r="X32" s="181"/>
+      <c r="Y32" s="181"/>
+      <c r="Z32" s="181"/>
+      <c r="AA32" s="181"/>
+      <c r="AB32" s="181"/>
+      <c r="AC32" s="181"/>
+      <c r="AD32" s="181"/>
+      <c r="AE32" s="181"/>
+      <c r="AF32" s="181"/>
+      <c r="AG32" s="181"/>
+      <c r="AH32" s="181"/>
+      <c r="AI32" s="181"/>
+      <c r="AJ32" s="181"/>
+      <c r="AK32" s="181"/>
+      <c r="AL32" s="181"/>
+      <c r="AM32" s="181"/>
+      <c r="AN32" s="181"/>
+      <c r="AO32" s="181"/>
       <c r="AP32" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AQ32" s="197">
-        <v>9710</v>
-      </c>
-      <c r="AR32" s="197"/>
-      <c r="AS32" s="197"/>
-      <c r="AT32" s="197"/>
-      <c r="AU32" s="197"/>
-      <c r="AV32" s="197"/>
-      <c r="AW32" s="197"/>
-      <c r="AX32" s="197"/>
+      <c r="AQ32" s="188"/>
+      <c r="AR32" s="188"/>
+      <c r="AS32" s="188"/>
+      <c r="AT32" s="188"/>
+      <c r="AU32" s="188"/>
+      <c r="AV32" s="188"/>
+      <c r="AW32" s="188"/>
+      <c r="AX32" s="188"/>
       <c r="AY32" s="45"/>
     </row>
     <row r="33" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="29"/>
-      <c r="C33" s="188" t="s">
+      <c r="C33" s="181" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="188"/>
-      <c r="L33" s="188"/>
-      <c r="M33" s="188"/>
-      <c r="N33" s="188"/>
-      <c r="O33" s="188"/>
-      <c r="P33" s="188"/>
-      <c r="Q33" s="188"/>
-      <c r="R33" s="188"/>
-      <c r="S33" s="188"/>
-      <c r="T33" s="188"/>
-      <c r="U33" s="188"/>
-      <c r="V33" s="188"/>
-      <c r="W33" s="188"/>
-      <c r="X33" s="188"/>
-      <c r="Y33" s="188"/>
-      <c r="Z33" s="188"/>
-      <c r="AA33" s="188"/>
-      <c r="AB33" s="188"/>
-      <c r="AC33" s="188"/>
-      <c r="AD33" s="188"/>
-      <c r="AE33" s="188"/>
-      <c r="AF33" s="188"/>
-      <c r="AG33" s="188"/>
-      <c r="AH33" s="188"/>
-      <c r="AI33" s="188"/>
-      <c r="AJ33" s="188"/>
-      <c r="AK33" s="188"/>
-      <c r="AL33" s="188"/>
-      <c r="AM33" s="188"/>
-      <c r="AN33" s="188"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="181"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
+      <c r="X33" s="181"/>
+      <c r="Y33" s="181"/>
+      <c r="Z33" s="181"/>
+      <c r="AA33" s="181"/>
+      <c r="AB33" s="181"/>
+      <c r="AC33" s="181"/>
+      <c r="AD33" s="181"/>
+      <c r="AE33" s="181"/>
+      <c r="AF33" s="181"/>
+      <c r="AG33" s="181"/>
+      <c r="AH33" s="181"/>
+      <c r="AI33" s="181"/>
+      <c r="AJ33" s="181"/>
+      <c r="AK33" s="181"/>
+      <c r="AL33" s="181"/>
+      <c r="AM33" s="181"/>
+      <c r="AN33" s="181"/>
       <c r="AO33" s="3"/>
       <c r="AP33" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AQ33" s="187">
-        <v>13000</v>
-      </c>
-      <c r="AR33" s="187"/>
-      <c r="AS33" s="187"/>
-      <c r="AT33" s="187"/>
-      <c r="AU33" s="187"/>
-      <c r="AV33" s="187"/>
-      <c r="AW33" s="187"/>
-      <c r="AX33" s="187"/>
+      <c r="AQ33" s="205"/>
+      <c r="AR33" s="205"/>
+      <c r="AS33" s="205"/>
+      <c r="AT33" s="205"/>
+      <c r="AU33" s="205"/>
+      <c r="AV33" s="205"/>
+      <c r="AW33" s="205"/>
+      <c r="AX33" s="205"/>
       <c r="AY33" s="45"/>
     </row>
     <row r="34" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="29"/>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="181" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="188"/>
-      <c r="K34" s="188"/>
-      <c r="L34" s="188"/>
-      <c r="M34" s="188"/>
-      <c r="N34" s="188"/>
-      <c r="O34" s="188"/>
-      <c r="P34" s="188"/>
-      <c r="Q34" s="188"/>
-      <c r="R34" s="188"/>
-      <c r="S34" s="188"/>
-      <c r="T34" s="188"/>
-      <c r="U34" s="188"/>
-      <c r="V34" s="188"/>
-      <c r="W34" s="188"/>
-      <c r="X34" s="188"/>
-      <c r="Y34" s="188"/>
-      <c r="Z34" s="188"/>
-      <c r="AA34" s="188"/>
-      <c r="AB34" s="188"/>
-      <c r="AC34" s="188"/>
-      <c r="AD34" s="188"/>
-      <c r="AE34" s="188"/>
-      <c r="AF34" s="188"/>
-      <c r="AG34" s="188"/>
-      <c r="AH34" s="188"/>
-      <c r="AI34" s="188"/>
-      <c r="AJ34" s="188"/>
-      <c r="AK34" s="188"/>
-      <c r="AL34" s="188"/>
-      <c r="AM34" s="188"/>
-      <c r="AN34" s="188"/>
-      <c r="AO34" s="188"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="181"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="181"/>
+      <c r="R34" s="181"/>
+      <c r="S34" s="181"/>
+      <c r="T34" s="181"/>
+      <c r="U34" s="181"/>
+      <c r="V34" s="181"/>
+      <c r="W34" s="181"/>
+      <c r="X34" s="181"/>
+      <c r="Y34" s="181"/>
+      <c r="Z34" s="181"/>
+      <c r="AA34" s="181"/>
+      <c r="AB34" s="181"/>
+      <c r="AC34" s="181"/>
+      <c r="AD34" s="181"/>
+      <c r="AE34" s="181"/>
+      <c r="AF34" s="181"/>
+      <c r="AG34" s="181"/>
+      <c r="AH34" s="181"/>
+      <c r="AI34" s="181"/>
+      <c r="AJ34" s="181"/>
+      <c r="AK34" s="181"/>
+      <c r="AL34" s="181"/>
+      <c r="AM34" s="181"/>
+      <c r="AN34" s="181"/>
+      <c r="AO34" s="181"/>
       <c r="AP34" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AQ34" s="187"/>
-      <c r="AR34" s="187"/>
-      <c r="AS34" s="187"/>
-      <c r="AT34" s="187"/>
-      <c r="AU34" s="187"/>
-      <c r="AV34" s="187"/>
-      <c r="AW34" s="187"/>
-      <c r="AX34" s="187"/>
+      <c r="AQ34" s="205"/>
+      <c r="AR34" s="205"/>
+      <c r="AS34" s="205"/>
+      <c r="AT34" s="205"/>
+      <c r="AU34" s="205"/>
+      <c r="AV34" s="205"/>
+      <c r="AW34" s="205"/>
+      <c r="AX34" s="205"/>
       <c r="AY34" s="45"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4385,17 +4280,14 @@
       <c r="AP35" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AQ35" s="187">
-        <f>SUM(AQ32:AX34)</f>
-        <v>22710</v>
-      </c>
-      <c r="AR35" s="187"/>
-      <c r="AS35" s="187"/>
-      <c r="AT35" s="187"/>
-      <c r="AU35" s="187"/>
-      <c r="AV35" s="187"/>
-      <c r="AW35" s="187"/>
-      <c r="AX35" s="187"/>
+      <c r="AQ35" s="205"/>
+      <c r="AR35" s="205"/>
+      <c r="AS35" s="205"/>
+      <c r="AT35" s="205"/>
+      <c r="AU35" s="205"/>
+      <c r="AV35" s="205"/>
+      <c r="AW35" s="205"/>
+      <c r="AX35" s="205"/>
       <c r="AY35" s="45"/>
     </row>
     <row r="36" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4445,17 +4337,14 @@
       <c r="AP36" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AQ36" s="187">
-        <f>(AQ32+AQ33)-1000</f>
-        <v>21710</v>
-      </c>
-      <c r="AR36" s="187"/>
-      <c r="AS36" s="187"/>
-      <c r="AT36" s="187"/>
-      <c r="AU36" s="187"/>
-      <c r="AV36" s="187"/>
-      <c r="AW36" s="187"/>
-      <c r="AX36" s="187"/>
+      <c r="AQ36" s="205"/>
+      <c r="AR36" s="205"/>
+      <c r="AS36" s="205"/>
+      <c r="AT36" s="205"/>
+      <c r="AU36" s="205"/>
+      <c r="AV36" s="205"/>
+      <c r="AW36" s="205"/>
+      <c r="AX36" s="205"/>
       <c r="AY36" s="45"/>
     </row>
     <row r="37" spans="1:51" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4564,11 +4453,11 @@
       <c r="AT38" s="18"/>
       <c r="AU38" s="18"/>
       <c r="AV38" s="18"/>
-      <c r="AW38" s="206" t="s">
+      <c r="AW38" s="200" t="s">
         <v>194</v>
       </c>
-      <c r="AX38" s="206"/>
-      <c r="AY38" s="207"/>
+      <c r="AX38" s="200"/>
+      <c r="AY38" s="201"/>
     </row>
     <row r="39" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
@@ -4625,42 +4514,42 @@
         <v>193</v>
       </c>
       <c r="AV39" s="3"/>
-      <c r="AW39" s="183" t="s">
+      <c r="AW39" s="192" t="s">
         <v>168</v>
       </c>
-      <c r="AX39" s="183"/>
-      <c r="AY39" s="184"/>
+      <c r="AX39" s="192"/>
+      <c r="AY39" s="193"/>
     </row>
     <row r="40" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="59"/>
       <c r="B40" s="52"/>
-      <c r="C40" s="189" t="s">
+      <c r="C40" s="182" t="s">
         <v>138</v>
       </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="189"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="189"/>
-      <c r="K40" s="189"/>
-      <c r="L40" s="189"/>
-      <c r="M40" s="189"/>
-      <c r="N40" s="189"/>
-      <c r="O40" s="189"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="182"/>
+      <c r="K40" s="182"/>
+      <c r="L40" s="182"/>
+      <c r="M40" s="182"/>
+      <c r="N40" s="182"/>
+      <c r="O40" s="182"/>
       <c r="P40" s="18"/>
       <c r="Q40" s="18"/>
-      <c r="R40" s="165" t="s">
+      <c r="R40" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="S40" s="165"/>
+      <c r="S40" s="180"/>
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
-      <c r="V40" s="165" t="s">
+      <c r="V40" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="W40" s="165"/>
+      <c r="W40" s="180"/>
       <c r="X40" s="18"/>
       <c r="Y40" s="57"/>
       <c r="Z40" s="52"/>
@@ -4682,21 +4571,21 @@
       <c r="AN40" s="18"/>
       <c r="AO40" s="18"/>
       <c r="AP40" s="18"/>
-      <c r="AQ40" s="165" t="s">
+      <c r="AQ40" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="AR40" s="165"/>
-      <c r="AS40" s="165"/>
-      <c r="AT40" s="165" t="s">
+      <c r="AR40" s="180"/>
+      <c r="AS40" s="180"/>
+      <c r="AT40" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="AU40" s="165"/>
-      <c r="AV40" s="165"/>
-      <c r="AW40" s="185" t="s">
+      <c r="AU40" s="180"/>
+      <c r="AV40" s="180"/>
+      <c r="AW40" s="203" t="s">
         <v>54</v>
       </c>
-      <c r="AX40" s="185"/>
-      <c r="AY40" s="186"/>
+      <c r="AX40" s="203"/>
+      <c r="AY40" s="204"/>
     </row>
     <row r="41" spans="1:51" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
@@ -4715,13 +4604,13 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="10"/>
-      <c r="R41" s="159"/>
-      <c r="S41" s="159"/>
-      <c r="T41" s="159"/>
-      <c r="U41" s="159"/>
-      <c r="V41" s="159"/>
-      <c r="W41" s="159"/>
-      <c r="X41" s="159"/>
+      <c r="R41" s="158"/>
+      <c r="S41" s="158"/>
+      <c r="T41" s="158"/>
+      <c r="U41" s="158"/>
+      <c r="V41" s="158"/>
+      <c r="W41" s="158"/>
+      <c r="X41" s="158"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="10"/>
@@ -4753,36 +4642,34 @@
     <row r="42" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="59"/>
       <c r="B42" s="52"/>
-      <c r="C42" s="165" t="s">
+      <c r="C42" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="165"/>
-      <c r="E42" s="165"/>
-      <c r="F42" s="165"/>
-      <c r="G42" s="168" t="s">
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="168"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="168"/>
-      <c r="O42" s="168"/>
-      <c r="P42" s="168"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="165"/>
+      <c r="L42" s="165"/>
+      <c r="M42" s="165"/>
+      <c r="N42" s="165"/>
+      <c r="O42" s="165"/>
+      <c r="P42" s="165"/>
       <c r="Q42" s="60"/>
-      <c r="R42" s="162" t="s">
+      <c r="R42" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="S42" s="162"/>
-      <c r="T42" s="162"/>
-      <c r="U42" s="161">
-        <v>2</v>
-      </c>
-      <c r="V42" s="161"/>
-      <c r="W42" s="161"/>
-      <c r="X42" s="161"/>
+      <c r="S42" s="160"/>
+      <c r="T42" s="160"/>
+      <c r="U42" s="217"/>
+      <c r="V42" s="217"/>
+      <c r="W42" s="217"/>
+      <c r="X42" s="217"/>
       <c r="Y42" s="57"/>
       <c r="Z42" s="18"/>
       <c r="AA42" s="61" t="s">
@@ -4805,14 +4692,14 @@
       <c r="AN42" s="14"/>
       <c r="AO42" s="14"/>
       <c r="AP42" s="14"/>
-      <c r="AQ42" s="162" t="s">
+      <c r="AQ42" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="AR42" s="162"/>
-      <c r="AS42" s="162"/>
+      <c r="AR42" s="160"/>
+      <c r="AS42" s="160"/>
       <c r="AT42" s="14"/>
-      <c r="AU42" s="161"/>
-      <c r="AV42" s="161"/>
+      <c r="AU42" s="217"/>
+      <c r="AV42" s="217"/>
       <c r="AW42" s="62"/>
       <c r="AX42" s="63"/>
       <c r="AY42" s="64"/>
@@ -4820,34 +4707,32 @@
     <row r="43" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="180" t="s">
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
-      <c r="N43" s="180"/>
-      <c r="O43" s="180"/>
-      <c r="P43" s="180"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="177"/>
+      <c r="M43" s="177"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="177"/>
+      <c r="P43" s="177"/>
       <c r="Q43" s="10"/>
-      <c r="R43" s="158" t="s">
+      <c r="R43" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="S43" s="158"/>
-      <c r="T43" s="158"/>
-      <c r="U43" s="146">
-        <v>2</v>
-      </c>
-      <c r="V43" s="146"/>
-      <c r="W43" s="146"/>
-      <c r="X43" s="146"/>
+      <c r="S43" s="161"/>
+      <c r="T43" s="161"/>
+      <c r="U43" s="218"/>
+      <c r="V43" s="218"/>
+      <c r="W43" s="218"/>
+      <c r="X43" s="218"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="65"/>
@@ -4867,16 +4752,14 @@
       <c r="AM43" s="66"/>
       <c r="AO43" s="9"/>
       <c r="AP43" s="66"/>
-      <c r="AQ43" s="159" t="s">
+      <c r="AQ43" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="AR43" s="159"/>
-      <c r="AS43" s="159"/>
+      <c r="AR43" s="158"/>
+      <c r="AS43" s="158"/>
       <c r="AT43" s="9"/>
-      <c r="AU43" s="160">
-        <v>1</v>
-      </c>
-      <c r="AV43" s="160"/>
+      <c r="AU43" s="218"/>
+      <c r="AV43" s="218"/>
       <c r="AW43" s="19"/>
       <c r="AX43" s="67"/>
       <c r="AY43" s="68"/>
@@ -4884,32 +4767,32 @@
     <row r="44" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="59"/>
       <c r="B44" s="52"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="182"/>
-      <c r="E44" s="182"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="168" t="s">
+      <c r="C44" s="179"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="168"/>
-      <c r="P44" s="168"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="165"/>
+      <c r="N44" s="165"/>
+      <c r="O44" s="165"/>
+      <c r="P44" s="165"/>
       <c r="Q44" s="60"/>
-      <c r="R44" s="162" t="s">
+      <c r="R44" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="S44" s="162"/>
-      <c r="T44" s="162"/>
-      <c r="U44" s="147"/>
-      <c r="V44" s="147"/>
-      <c r="W44" s="147"/>
-      <c r="X44" s="147"/>
+      <c r="S44" s="160"/>
+      <c r="T44" s="160"/>
+      <c r="U44" s="217"/>
+      <c r="V44" s="217"/>
+      <c r="W44" s="217"/>
+      <c r="X44" s="217"/>
       <c r="Y44" s="57"/>
       <c r="Z44" s="18"/>
       <c r="AA44" s="70"/>
@@ -4930,14 +4813,14 @@
       <c r="AN44" s="18"/>
       <c r="AO44" s="72"/>
       <c r="AP44" s="18"/>
-      <c r="AQ44" s="162" t="s">
+      <c r="AQ44" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="AR44" s="162"/>
-      <c r="AS44" s="162"/>
+      <c r="AR44" s="160"/>
+      <c r="AS44" s="160"/>
       <c r="AT44" s="72"/>
-      <c r="AU44" s="147"/>
-      <c r="AV44" s="147"/>
+      <c r="AU44" s="217"/>
+      <c r="AV44" s="217"/>
       <c r="AW44" s="62"/>
       <c r="AX44" s="63"/>
       <c r="AY44" s="64"/>
@@ -4945,32 +4828,32 @@
     <row r="45" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="180" t="s">
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="H45" s="180"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="180"/>
-      <c r="L45" s="180"/>
-      <c r="M45" s="180"/>
-      <c r="N45" s="180"/>
-      <c r="O45" s="180"/>
-      <c r="P45" s="180"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="177"/>
+      <c r="K45" s="177"/>
+      <c r="L45" s="177"/>
+      <c r="M45" s="177"/>
+      <c r="N45" s="177"/>
+      <c r="O45" s="177"/>
+      <c r="P45" s="177"/>
       <c r="Q45" s="10"/>
-      <c r="R45" s="164" t="s">
+      <c r="R45" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="S45" s="164"/>
-      <c r="T45" s="164"/>
-      <c r="U45" s="146"/>
-      <c r="V45" s="146"/>
-      <c r="W45" s="146"/>
-      <c r="X45" s="146"/>
+      <c r="S45" s="163"/>
+      <c r="T45" s="163"/>
+      <c r="U45" s="218"/>
+      <c r="V45" s="218"/>
+      <c r="W45" s="218"/>
+      <c r="X45" s="218"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="65"/>
@@ -4989,14 +4872,14 @@
       <c r="AL45" s="66"/>
       <c r="AM45" s="66"/>
       <c r="AO45" s="9"/>
-      <c r="AQ45" s="159" t="s">
+      <c r="AQ45" s="158" t="s">
         <v>144</v>
       </c>
-      <c r="AR45" s="159"/>
-      <c r="AS45" s="159"/>
+      <c r="AR45" s="158"/>
+      <c r="AS45" s="158"/>
       <c r="AT45" s="9"/>
-      <c r="AU45" s="160"/>
-      <c r="AV45" s="160"/>
+      <c r="AU45" s="218"/>
+      <c r="AV45" s="218"/>
       <c r="AW45" s="19"/>
       <c r="AX45" s="67"/>
       <c r="AY45" s="68"/>
@@ -5004,32 +4887,32 @@
     <row r="46" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="59"/>
       <c r="B46" s="52"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="182"/>
-      <c r="E46" s="182"/>
-      <c r="F46" s="182"/>
-      <c r="G46" s="168" t="s">
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="179"/>
+      <c r="G46" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="168"/>
-      <c r="M46" s="168"/>
-      <c r="N46" s="168"/>
-      <c r="O46" s="168"/>
-      <c r="P46" s="168"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="165"/>
+      <c r="L46" s="165"/>
+      <c r="M46" s="165"/>
+      <c r="N46" s="165"/>
+      <c r="O46" s="165"/>
+      <c r="P46" s="165"/>
       <c r="Q46" s="60"/>
-      <c r="R46" s="162" t="s">
+      <c r="R46" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="S46" s="162"/>
-      <c r="T46" s="162"/>
-      <c r="U46" s="147"/>
-      <c r="V46" s="147"/>
-      <c r="W46" s="147"/>
-      <c r="X46" s="147"/>
+      <c r="S46" s="160"/>
+      <c r="T46" s="160"/>
+      <c r="U46" s="217"/>
+      <c r="V46" s="217"/>
+      <c r="W46" s="217"/>
+      <c r="X46" s="217"/>
       <c r="Y46" s="57"/>
       <c r="Z46" s="18"/>
       <c r="AA46" s="70"/>
@@ -5050,14 +4933,14 @@
       <c r="AN46" s="18"/>
       <c r="AO46" s="72"/>
       <c r="AP46" s="18"/>
-      <c r="AQ46" s="162" t="s">
+      <c r="AQ46" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="AR46" s="162"/>
-      <c r="AS46" s="162"/>
+      <c r="AR46" s="160"/>
+      <c r="AS46" s="160"/>
       <c r="AT46" s="72"/>
-      <c r="AU46" s="147"/>
-      <c r="AV46" s="147"/>
+      <c r="AU46" s="217"/>
+      <c r="AV46" s="217"/>
       <c r="AW46" s="62"/>
       <c r="AX46" s="63"/>
       <c r="AY46" s="64"/>
@@ -5065,34 +4948,34 @@
     <row r="47" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="164" t="s">
+      <c r="C47" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="180" t="s">
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="163"/>
+      <c r="G47" s="177" t="s">
         <v>153</v>
       </c>
-      <c r="H47" s="180"/>
-      <c r="I47" s="180"/>
-      <c r="J47" s="180"/>
-      <c r="K47" s="180"/>
-      <c r="L47" s="180"/>
-      <c r="M47" s="180"/>
-      <c r="N47" s="180"/>
-      <c r="O47" s="180"/>
-      <c r="P47" s="180"/>
-      <c r="Q47" s="180"/>
-      <c r="R47" s="158" t="s">
+      <c r="H47" s="177"/>
+      <c r="I47" s="177"/>
+      <c r="J47" s="177"/>
+      <c r="K47" s="177"/>
+      <c r="L47" s="177"/>
+      <c r="M47" s="177"/>
+      <c r="N47" s="177"/>
+      <c r="O47" s="177"/>
+      <c r="P47" s="177"/>
+      <c r="Q47" s="177"/>
+      <c r="R47" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="S47" s="158"/>
-      <c r="T47" s="158"/>
-      <c r="U47" s="146"/>
-      <c r="V47" s="146"/>
-      <c r="W47" s="146"/>
-      <c r="X47" s="146"/>
+      <c r="S47" s="161"/>
+      <c r="T47" s="161"/>
+      <c r="U47" s="218"/>
+      <c r="V47" s="218"/>
+      <c r="W47" s="218"/>
+      <c r="X47" s="218"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="65"/>
@@ -5111,14 +4994,14 @@
       <c r="AL47" s="66"/>
       <c r="AM47" s="66"/>
       <c r="AO47" s="9"/>
-      <c r="AQ47" s="159" t="s">
+      <c r="AQ47" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="AR47" s="159"/>
-      <c r="AS47" s="159"/>
+      <c r="AR47" s="158"/>
+      <c r="AS47" s="158"/>
       <c r="AT47" s="9"/>
-      <c r="AU47" s="160"/>
-      <c r="AV47" s="160"/>
+      <c r="AU47" s="218"/>
+      <c r="AV47" s="218"/>
       <c r="AW47" s="19"/>
       <c r="AX47" s="67"/>
       <c r="AY47" s="68"/>
@@ -5126,28 +5009,28 @@
     <row r="48" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="59"/>
       <c r="B48" s="52"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="182"/>
-      <c r="I48" s="182"/>
-      <c r="J48" s="182"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="179"/>
+      <c r="J48" s="179"/>
       <c r="K48" s="18"/>
-      <c r="L48" s="169"/>
-      <c r="M48" s="162"/>
-      <c r="N48" s="162"/>
-      <c r="O48" s="162"/>
+      <c r="L48" s="166"/>
+      <c r="M48" s="160"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="160"/>
       <c r="P48" s="18"/>
-      <c r="Q48" s="182"/>
-      <c r="R48" s="182"/>
-      <c r="S48" s="182"/>
+      <c r="Q48" s="179"/>
+      <c r="R48" s="179"/>
+      <c r="S48" s="179"/>
       <c r="T48" s="18"/>
-      <c r="U48" s="163"/>
-      <c r="V48" s="163"/>
-      <c r="W48" s="163"/>
-      <c r="X48" s="163"/>
+      <c r="U48" s="162"/>
+      <c r="V48" s="162"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="162"/>
       <c r="Y48" s="57"/>
       <c r="Z48" s="18"/>
       <c r="AA48" s="70"/>
@@ -5168,14 +5051,14 @@
       <c r="AN48" s="18"/>
       <c r="AO48" s="72"/>
       <c r="AP48" s="18"/>
-      <c r="AQ48" s="162" t="s">
+      <c r="AQ48" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="AR48" s="162"/>
-      <c r="AS48" s="162"/>
+      <c r="AR48" s="160"/>
+      <c r="AS48" s="160"/>
       <c r="AT48" s="72"/>
-      <c r="AU48" s="147"/>
-      <c r="AV48" s="147"/>
+      <c r="AU48" s="217"/>
+      <c r="AV48" s="217"/>
       <c r="AW48" s="62"/>
       <c r="AX48" s="63"/>
       <c r="AY48" s="64"/>
@@ -5183,36 +5066,34 @@
     <row r="49" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="188" t="s">
+      <c r="C49" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="188"/>
-      <c r="E49" s="188"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="180" t="s">
+      <c r="D49" s="181"/>
+      <c r="E49" s="181"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="180"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="180"/>
-      <c r="K49" s="180"/>
-      <c r="L49" s="180"/>
-      <c r="M49" s="180"/>
-      <c r="N49" s="180"/>
-      <c r="O49" s="180"/>
+      <c r="H49" s="177"/>
+      <c r="I49" s="177"/>
+      <c r="J49" s="177"/>
+      <c r="K49" s="177"/>
+      <c r="L49" s="177"/>
+      <c r="M49" s="177"/>
+      <c r="N49" s="177"/>
+      <c r="O49" s="177"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="10"/>
-      <c r="R49" s="158" t="s">
+      <c r="R49" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="S49" s="158"/>
-      <c r="T49" s="158"/>
-      <c r="U49" s="148">
-        <v>2</v>
-      </c>
-      <c r="V49" s="148"/>
-      <c r="W49" s="148"/>
-      <c r="X49" s="148"/>
+      <c r="S49" s="161"/>
+      <c r="T49" s="161"/>
+      <c r="U49" s="218"/>
+      <c r="V49" s="218"/>
+      <c r="W49" s="218"/>
+      <c r="X49" s="218"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="65"/>
@@ -5231,14 +5112,14 @@
       <c r="AL49" s="66"/>
       <c r="AM49" s="66"/>
       <c r="AO49" s="9"/>
-      <c r="AQ49" s="159" t="s">
+      <c r="AQ49" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="AR49" s="159"/>
-      <c r="AS49" s="159"/>
+      <c r="AR49" s="158"/>
+      <c r="AS49" s="158"/>
       <c r="AT49" s="9"/>
-      <c r="AU49" s="160"/>
-      <c r="AV49" s="160"/>
+      <c r="AU49" s="218"/>
+      <c r="AV49" s="218"/>
       <c r="AW49" s="19"/>
       <c r="AX49" s="67"/>
       <c r="AY49" s="4"/>
@@ -5246,32 +5127,32 @@
     <row r="50" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="59"/>
       <c r="B50" s="52"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="182"/>
-      <c r="F50" s="182"/>
-      <c r="G50" s="170" t="s">
+      <c r="C50" s="179"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="179"/>
+      <c r="F50" s="179"/>
+      <c r="G50" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="H50" s="170"/>
-      <c r="I50" s="170"/>
-      <c r="J50" s="170"/>
-      <c r="K50" s="170"/>
-      <c r="L50" s="170"/>
-      <c r="M50" s="170"/>
-      <c r="N50" s="170"/>
-      <c r="O50" s="170"/>
+      <c r="H50" s="167"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="167"/>
+      <c r="K50" s="167"/>
+      <c r="L50" s="167"/>
+      <c r="M50" s="167"/>
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
       <c r="P50" s="18"/>
       <c r="Q50" s="60"/>
-      <c r="R50" s="169" t="s">
+      <c r="R50" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="S50" s="169"/>
-      <c r="T50" s="169"/>
-      <c r="U50" s="147"/>
-      <c r="V50" s="147"/>
-      <c r="W50" s="147"/>
-      <c r="X50" s="147"/>
+      <c r="S50" s="166"/>
+      <c r="T50" s="166"/>
+      <c r="U50" s="217"/>
+      <c r="V50" s="217"/>
+      <c r="W50" s="217"/>
+      <c r="X50" s="217"/>
       <c r="Y50" s="57"/>
       <c r="Z50" s="18"/>
       <c r="AA50" s="70"/>
@@ -5292,14 +5173,14 @@
       <c r="AN50" s="18"/>
       <c r="AO50" s="72"/>
       <c r="AP50" s="18"/>
-      <c r="AQ50" s="162" t="s">
+      <c r="AQ50" s="160" t="s">
         <v>149</v>
       </c>
-      <c r="AR50" s="162"/>
-      <c r="AS50" s="162"/>
+      <c r="AR50" s="160"/>
+      <c r="AS50" s="160"/>
       <c r="AT50" s="72"/>
-      <c r="AU50" s="147"/>
-      <c r="AV50" s="147"/>
+      <c r="AU50" s="217"/>
+      <c r="AV50" s="217"/>
       <c r="AW50" s="62"/>
       <c r="AX50" s="63"/>
       <c r="AY50" s="64"/>
@@ -5307,32 +5188,32 @@
     <row r="51" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="171"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="180" t="s">
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
-      <c r="J51" s="180"/>
-      <c r="K51" s="180"/>
-      <c r="L51" s="180"/>
-      <c r="M51" s="180"/>
-      <c r="N51" s="180"/>
-      <c r="O51" s="180"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="177"/>
+      <c r="J51" s="177"/>
+      <c r="K51" s="177"/>
+      <c r="L51" s="177"/>
+      <c r="M51" s="177"/>
+      <c r="N51" s="177"/>
+      <c r="O51" s="177"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="10"/>
-      <c r="R51" s="158" t="s">
+      <c r="R51" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="S51" s="158"/>
-      <c r="T51" s="158"/>
-      <c r="U51" s="146"/>
-      <c r="V51" s="146"/>
-      <c r="W51" s="146"/>
-      <c r="X51" s="146"/>
+      <c r="S51" s="161"/>
+      <c r="T51" s="161"/>
+      <c r="U51" s="218"/>
+      <c r="V51" s="218"/>
+      <c r="W51" s="218"/>
+      <c r="X51" s="218"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="65"/>
@@ -5351,14 +5232,14 @@
       <c r="AL51" s="66"/>
       <c r="AM51" s="66"/>
       <c r="AO51" s="9"/>
-      <c r="AQ51" s="159" t="s">
+      <c r="AQ51" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="AR51" s="159"/>
-      <c r="AS51" s="159"/>
+      <c r="AR51" s="158"/>
+      <c r="AS51" s="158"/>
       <c r="AT51" s="9"/>
-      <c r="AU51" s="160"/>
-      <c r="AV51" s="160"/>
+      <c r="AU51" s="218"/>
+      <c r="AV51" s="218"/>
       <c r="AW51" s="19"/>
       <c r="AX51" s="67"/>
       <c r="AY51" s="68"/>
@@ -5366,32 +5247,32 @@
     <row r="52" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="59"/>
       <c r="B52" s="52"/>
-      <c r="C52" s="182"/>
-      <c r="D52" s="182"/>
-      <c r="E52" s="182"/>
-      <c r="F52" s="182"/>
-      <c r="G52" s="168" t="s">
+      <c r="C52" s="179"/>
+      <c r="D52" s="179"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="168"/>
-      <c r="I52" s="168"/>
-      <c r="J52" s="168"/>
-      <c r="K52" s="168"/>
-      <c r="L52" s="168"/>
-      <c r="M52" s="168"/>
-      <c r="N52" s="168"/>
-      <c r="O52" s="168"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="165"/>
+      <c r="J52" s="165"/>
+      <c r="K52" s="165"/>
+      <c r="L52" s="165"/>
+      <c r="M52" s="165"/>
+      <c r="N52" s="165"/>
+      <c r="O52" s="165"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="60"/>
-      <c r="R52" s="169" t="s">
+      <c r="R52" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="S52" s="169"/>
-      <c r="T52" s="169"/>
-      <c r="U52" s="147"/>
-      <c r="V52" s="147"/>
-      <c r="W52" s="147"/>
-      <c r="X52" s="147"/>
+      <c r="S52" s="166"/>
+      <c r="T52" s="166"/>
+      <c r="U52" s="217"/>
+      <c r="V52" s="217"/>
+      <c r="W52" s="217"/>
+      <c r="X52" s="217"/>
       <c r="Y52" s="57"/>
       <c r="Z52" s="18"/>
       <c r="AA52" s="70"/>
@@ -5412,14 +5293,14 @@
       <c r="AN52" s="71"/>
       <c r="AO52" s="72"/>
       <c r="AP52" s="18"/>
-      <c r="AQ52" s="162" t="s">
+      <c r="AQ52" s="160" t="s">
         <v>151</v>
       </c>
-      <c r="AR52" s="162"/>
-      <c r="AS52" s="162"/>
+      <c r="AR52" s="160"/>
+      <c r="AS52" s="160"/>
       <c r="AT52" s="72"/>
-      <c r="AU52" s="147"/>
-      <c r="AV52" s="147"/>
+      <c r="AU52" s="217"/>
+      <c r="AV52" s="217"/>
       <c r="AW52" s="62"/>
       <c r="AX52" s="63"/>
       <c r="AY52" s="64"/>
@@ -5427,32 +5308,32 @@
     <row r="53" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="180" t="s">
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="168"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="H53" s="180"/>
-      <c r="I53" s="180"/>
-      <c r="J53" s="180"/>
-      <c r="K53" s="180"/>
-      <c r="L53" s="180"/>
-      <c r="M53" s="180"/>
-      <c r="N53" s="180"/>
-      <c r="O53" s="180"/>
+      <c r="H53" s="177"/>
+      <c r="I53" s="177"/>
+      <c r="J53" s="177"/>
+      <c r="K53" s="177"/>
+      <c r="L53" s="177"/>
+      <c r="M53" s="177"/>
+      <c r="N53" s="177"/>
+      <c r="O53" s="177"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="10"/>
-      <c r="R53" s="158" t="s">
+      <c r="R53" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="S53" s="158"/>
-      <c r="T53" s="158"/>
-      <c r="U53" s="146"/>
-      <c r="V53" s="146"/>
-      <c r="W53" s="146"/>
-      <c r="X53" s="146"/>
+      <c r="S53" s="161"/>
+      <c r="T53" s="161"/>
+      <c r="U53" s="218"/>
+      <c r="V53" s="218"/>
+      <c r="W53" s="218"/>
+      <c r="X53" s="218"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="3"/>
       <c r="AA53" s="65"/>
@@ -5463,13 +5344,13 @@
       <c r="AF53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AQ53" s="159" t="s">
+      <c r="AQ53" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="AR53" s="159"/>
-      <c r="AS53" s="159"/>
-      <c r="AU53" s="160"/>
-      <c r="AV53" s="160"/>
+      <c r="AR53" s="158"/>
+      <c r="AS53" s="158"/>
+      <c r="AU53" s="218"/>
+      <c r="AV53" s="218"/>
       <c r="AW53" s="19"/>
       <c r="AX53" s="67"/>
       <c r="AY53" s="68"/>
@@ -5477,89 +5358,89 @@
     <row r="54" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="59"/>
       <c r="B54" s="52"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="182"/>
-      <c r="E54" s="182"/>
-      <c r="F54" s="182"/>
-      <c r="G54" s="168" t="s">
+      <c r="C54" s="179"/>
+      <c r="D54" s="179"/>
+      <c r="E54" s="179"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="H54" s="168"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="168"/>
-      <c r="K54" s="168"/>
-      <c r="L54" s="168"/>
-      <c r="M54" s="168"/>
-      <c r="N54" s="168"/>
-      <c r="O54" s="168"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="165"/>
+      <c r="J54" s="165"/>
+      <c r="K54" s="165"/>
+      <c r="L54" s="165"/>
+      <c r="M54" s="165"/>
+      <c r="N54" s="165"/>
+      <c r="O54" s="165"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="60"/>
-      <c r="R54" s="169" t="s">
+      <c r="R54" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="S54" s="169"/>
-      <c r="T54" s="169"/>
-      <c r="U54" s="147"/>
-      <c r="V54" s="147"/>
-      <c r="W54" s="147"/>
-      <c r="X54" s="147"/>
+      <c r="S54" s="166"/>
+      <c r="T54" s="166"/>
+      <c r="U54" s="217"/>
+      <c r="V54" s="217"/>
+      <c r="W54" s="217"/>
+      <c r="X54" s="217"/>
       <c r="Y54" s="57"/>
       <c r="Z54" s="52"/>
-      <c r="AA54" s="165"/>
-      <c r="AB54" s="165"/>
-      <c r="AC54" s="165"/>
-      <c r="AD54" s="165"/>
-      <c r="AE54" s="165"/>
-      <c r="AF54" s="165"/>
-      <c r="AG54" s="165"/>
-      <c r="AH54" s="165"/>
-      <c r="AI54" s="165"/>
-      <c r="AJ54" s="165"/>
-      <c r="AK54" s="165"/>
-      <c r="AL54" s="165"/>
-      <c r="AM54" s="165"/>
-      <c r="AN54" s="165"/>
-      <c r="AO54" s="165"/>
-      <c r="AP54" s="165"/>
-      <c r="AQ54" s="165"/>
-      <c r="AR54" s="165"/>
-      <c r="AS54" s="165"/>
-      <c r="AT54" s="165"/>
-      <c r="AU54" s="165"/>
-      <c r="AV54" s="165"/>
-      <c r="AW54" s="165"/>
-      <c r="AX54" s="165"/>
+      <c r="AA54" s="180"/>
+      <c r="AB54" s="180"/>
+      <c r="AC54" s="180"/>
+      <c r="AD54" s="180"/>
+      <c r="AE54" s="180"/>
+      <c r="AF54" s="180"/>
+      <c r="AG54" s="180"/>
+      <c r="AH54" s="180"/>
+      <c r="AI54" s="180"/>
+      <c r="AJ54" s="180"/>
+      <c r="AK54" s="180"/>
+      <c r="AL54" s="180"/>
+      <c r="AM54" s="180"/>
+      <c r="AN54" s="180"/>
+      <c r="AO54" s="180"/>
+      <c r="AP54" s="180"/>
+      <c r="AQ54" s="180"/>
+      <c r="AR54" s="180"/>
+      <c r="AS54" s="180"/>
+      <c r="AT54" s="180"/>
+      <c r="AU54" s="180"/>
+      <c r="AV54" s="180"/>
+      <c r="AW54" s="180"/>
+      <c r="AX54" s="180"/>
       <c r="AY54" s="73"/>
     </row>
     <row r="55" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="171"/>
-      <c r="D55" s="171"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="180" t="s">
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="168"/>
+      <c r="G55" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="H55" s="180"/>
-      <c r="I55" s="180"/>
-      <c r="J55" s="180"/>
-      <c r="K55" s="180"/>
-      <c r="L55" s="180"/>
-      <c r="M55" s="180"/>
-      <c r="N55" s="180"/>
-      <c r="O55" s="180"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="177"/>
+      <c r="J55" s="177"/>
+      <c r="K55" s="177"/>
+      <c r="L55" s="177"/>
+      <c r="M55" s="177"/>
+      <c r="N55" s="177"/>
+      <c r="O55" s="177"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="10"/>
-      <c r="R55" s="158" t="s">
+      <c r="R55" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="S55" s="158"/>
-      <c r="T55" s="158"/>
-      <c r="U55" s="146"/>
-      <c r="V55" s="146"/>
-      <c r="W55" s="146"/>
-      <c r="X55" s="146"/>
+      <c r="S55" s="161"/>
+      <c r="T55" s="161"/>
+      <c r="U55" s="218"/>
+      <c r="V55" s="218"/>
+      <c r="W55" s="218"/>
+      <c r="X55" s="218"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="74" t="s">
@@ -5582,14 +5463,14 @@
       <c r="AN55" s="39"/>
       <c r="AO55" s="11"/>
       <c r="AP55" s="3"/>
-      <c r="AQ55" s="164" t="s">
+      <c r="AQ55" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="AR55" s="164"/>
-      <c r="AS55" s="164"/>
+      <c r="AR55" s="163"/>
+      <c r="AS55" s="163"/>
       <c r="AT55" s="11"/>
-      <c r="AU55" s="148"/>
-      <c r="AV55" s="148"/>
+      <c r="AU55" s="218"/>
+      <c r="AV55" s="218"/>
       <c r="AW55" s="35"/>
       <c r="AX55" s="33"/>
       <c r="AY55" s="56"/>
@@ -5597,86 +5478,86 @@
     <row r="56" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="59"/>
       <c r="B56" s="52"/>
-      <c r="C56" s="182"/>
-      <c r="D56" s="182"/>
-      <c r="E56" s="182"/>
-      <c r="F56" s="182"/>
-      <c r="G56" s="168"/>
-      <c r="H56" s="182"/>
-      <c r="I56" s="182"/>
-      <c r="J56" s="182"/>
+      <c r="C56" s="179"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="179"/>
+      <c r="F56" s="179"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="179"/>
+      <c r="I56" s="179"/>
+      <c r="J56" s="179"/>
       <c r="K56" s="18"/>
-      <c r="L56" s="169"/>
-      <c r="M56" s="162"/>
-      <c r="N56" s="162"/>
-      <c r="O56" s="162"/>
+      <c r="L56" s="166"/>
+      <c r="M56" s="160"/>
+      <c r="N56" s="160"/>
+      <c r="O56" s="160"/>
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
-      <c r="U56" s="190"/>
-      <c r="V56" s="190"/>
-      <c r="W56" s="190"/>
-      <c r="X56" s="190"/>
+      <c r="U56" s="183"/>
+      <c r="V56" s="183"/>
+      <c r="W56" s="183"/>
+      <c r="X56" s="183"/>
       <c r="Y56" s="57"/>
       <c r="Z56" s="18"/>
-      <c r="AA56" s="165"/>
-      <c r="AB56" s="165"/>
-      <c r="AC56" s="165"/>
-      <c r="AD56" s="165"/>
-      <c r="AE56" s="165"/>
-      <c r="AF56" s="165"/>
-      <c r="AG56" s="165"/>
-      <c r="AH56" s="165"/>
-      <c r="AI56" s="165"/>
-      <c r="AJ56" s="165"/>
-      <c r="AK56" s="165"/>
-      <c r="AL56" s="165"/>
-      <c r="AM56" s="165"/>
-      <c r="AN56" s="165"/>
-      <c r="AO56" s="165"/>
-      <c r="AP56" s="165"/>
-      <c r="AQ56" s="165"/>
-      <c r="AR56" s="165"/>
-      <c r="AS56" s="165"/>
-      <c r="AT56" s="165"/>
-      <c r="AU56" s="165"/>
-      <c r="AV56" s="165"/>
-      <c r="AW56" s="165"/>
-      <c r="AX56" s="165"/>
+      <c r="AA56" s="180"/>
+      <c r="AB56" s="180"/>
+      <c r="AC56" s="180"/>
+      <c r="AD56" s="180"/>
+      <c r="AE56" s="180"/>
+      <c r="AF56" s="180"/>
+      <c r="AG56" s="180"/>
+      <c r="AH56" s="180"/>
+      <c r="AI56" s="180"/>
+      <c r="AJ56" s="180"/>
+      <c r="AK56" s="180"/>
+      <c r="AL56" s="180"/>
+      <c r="AM56" s="180"/>
+      <c r="AN56" s="180"/>
+      <c r="AO56" s="180"/>
+      <c r="AP56" s="180"/>
+      <c r="AQ56" s="180"/>
+      <c r="AR56" s="180"/>
+      <c r="AS56" s="180"/>
+      <c r="AT56" s="180"/>
+      <c r="AU56" s="180"/>
+      <c r="AV56" s="180"/>
+      <c r="AW56" s="180"/>
+      <c r="AX56" s="180"/>
       <c r="AY56" s="73"/>
     </row>
     <row r="57" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="188" t="s">
+      <c r="C57" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="188"/>
-      <c r="G57" s="180" t="s">
+      <c r="D57" s="181"/>
+      <c r="E57" s="181"/>
+      <c r="F57" s="181"/>
+      <c r="G57" s="177" t="s">
         <v>187</v>
       </c>
-      <c r="H57" s="180"/>
-      <c r="I57" s="180"/>
-      <c r="J57" s="180"/>
-      <c r="K57" s="180"/>
-      <c r="L57" s="180"/>
-      <c r="M57" s="180"/>
-      <c r="N57" s="180"/>
-      <c r="O57" s="180"/>
-      <c r="P57" s="180"/>
-      <c r="Q57" s="180"/>
-      <c r="R57" s="158" t="s">
+      <c r="H57" s="177"/>
+      <c r="I57" s="177"/>
+      <c r="J57" s="177"/>
+      <c r="K57" s="177"/>
+      <c r="L57" s="177"/>
+      <c r="M57" s="177"/>
+      <c r="N57" s="177"/>
+      <c r="O57" s="177"/>
+      <c r="P57" s="177"/>
+      <c r="Q57" s="177"/>
+      <c r="R57" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="S57" s="158"/>
-      <c r="T57" s="158"/>
-      <c r="U57" s="192"/>
-      <c r="V57" s="192"/>
-      <c r="W57" s="192"/>
+      <c r="S57" s="161"/>
+      <c r="T57" s="161"/>
+      <c r="U57" s="218"/>
+      <c r="V57" s="218"/>
+      <c r="W57" s="218"/>
       <c r="X57" s="20" t="s">
         <v>46</v>
       </c>
@@ -5688,26 +5569,24 @@
       <c r="AB57" s="76"/>
       <c r="AC57" s="76"/>
       <c r="AD57" s="76"/>
-      <c r="AF57" s="177" t="s">
+      <c r="AF57" s="174" t="s">
         <v>123</v>
       </c>
-      <c r="AG57" s="177"/>
-      <c r="AH57" s="177"/>
-      <c r="AI57" s="177"/>
-      <c r="AJ57" s="177"/>
-      <c r="AK57" s="177"/>
-      <c r="AL57" s="177"/>
-      <c r="AM57" s="177"/>
+      <c r="AG57" s="174"/>
+      <c r="AH57" s="174"/>
+      <c r="AI57" s="174"/>
+      <c r="AJ57" s="174"/>
+      <c r="AK57" s="174"/>
+      <c r="AL57" s="174"/>
+      <c r="AM57" s="174"/>
       <c r="AP57" s="77"/>
-      <c r="AQ57" s="159" t="s">
+      <c r="AQ57" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="AR57" s="159"/>
-      <c r="AS57" s="159"/>
-      <c r="AU57" s="213">
-        <v>1</v>
-      </c>
-      <c r="AV57" s="213"/>
+      <c r="AR57" s="158"/>
+      <c r="AS57" s="158"/>
+      <c r="AU57" s="218"/>
+      <c r="AV57" s="218"/>
       <c r="AW57" s="77"/>
       <c r="AX57" s="9"/>
       <c r="AY57" s="4"/>
@@ -5715,92 +5594,90 @@
     <row r="58" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="59"/>
       <c r="B58" s="52"/>
-      <c r="C58" s="182"/>
-      <c r="D58" s="182"/>
-      <c r="E58" s="182"/>
-      <c r="F58" s="182"/>
-      <c r="G58" s="168" t="s">
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
+      <c r="E58" s="179"/>
+      <c r="F58" s="179"/>
+      <c r="G58" s="165" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="168"/>
-      <c r="I58" s="168"/>
-      <c r="J58" s="168"/>
-      <c r="K58" s="168"/>
-      <c r="L58" s="168"/>
-      <c r="M58" s="168"/>
-      <c r="N58" s="168"/>
-      <c r="O58" s="168"/>
-      <c r="P58" s="168"/>
-      <c r="Q58" s="168"/>
-      <c r="R58" s="169" t="s">
+      <c r="H58" s="165"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="165"/>
+      <c r="K58" s="165"/>
+      <c r="L58" s="165"/>
+      <c r="M58" s="165"/>
+      <c r="N58" s="165"/>
+      <c r="O58" s="165"/>
+      <c r="P58" s="165"/>
+      <c r="Q58" s="165"/>
+      <c r="R58" s="166" t="s">
         <v>155</v>
       </c>
-      <c r="S58" s="169"/>
-      <c r="T58" s="169"/>
-      <c r="U58" s="209">
-        <v>600</v>
-      </c>
-      <c r="V58" s="209"/>
-      <c r="W58" s="209"/>
+      <c r="S58" s="166"/>
+      <c r="T58" s="166"/>
+      <c r="U58" s="217"/>
+      <c r="V58" s="217"/>
+      <c r="W58" s="217"/>
       <c r="X58" s="21" t="s">
         <v>46</v>
       </c>
       <c r="Y58" s="57"/>
       <c r="Z58" s="18"/>
-      <c r="AA58" s="165"/>
-      <c r="AB58" s="165"/>
-      <c r="AC58" s="165"/>
-      <c r="AD58" s="165"/>
-      <c r="AE58" s="165"/>
-      <c r="AF58" s="165"/>
-      <c r="AG58" s="165"/>
-      <c r="AH58" s="165"/>
-      <c r="AI58" s="165"/>
-      <c r="AJ58" s="165"/>
-      <c r="AK58" s="165"/>
-      <c r="AL58" s="165"/>
-      <c r="AM58" s="165"/>
-      <c r="AN58" s="165"/>
-      <c r="AO58" s="165"/>
-      <c r="AP58" s="165"/>
-      <c r="AQ58" s="165"/>
-      <c r="AR58" s="165"/>
-      <c r="AS58" s="165"/>
-      <c r="AT58" s="165"/>
-      <c r="AU58" s="165"/>
-      <c r="AV58" s="165"/>
-      <c r="AW58" s="165"/>
-      <c r="AX58" s="165"/>
+      <c r="AA58" s="180"/>
+      <c r="AB58" s="180"/>
+      <c r="AC58" s="180"/>
+      <c r="AD58" s="180"/>
+      <c r="AE58" s="180"/>
+      <c r="AF58" s="180"/>
+      <c r="AG58" s="180"/>
+      <c r="AH58" s="180"/>
+      <c r="AI58" s="180"/>
+      <c r="AJ58" s="180"/>
+      <c r="AK58" s="180"/>
+      <c r="AL58" s="180"/>
+      <c r="AM58" s="180"/>
+      <c r="AN58" s="180"/>
+      <c r="AO58" s="180"/>
+      <c r="AP58" s="180"/>
+      <c r="AQ58" s="180"/>
+      <c r="AR58" s="180"/>
+      <c r="AS58" s="180"/>
+      <c r="AT58" s="180"/>
+      <c r="AU58" s="180"/>
+      <c r="AV58" s="180"/>
+      <c r="AW58" s="180"/>
+      <c r="AX58" s="180"/>
       <c r="AY58" s="79"/>
     </row>
     <row r="59" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="171"/>
-      <c r="D59" s="171"/>
-      <c r="E59" s="171"/>
-      <c r="F59" s="171"/>
-      <c r="G59" s="177" t="s">
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
+      <c r="E59" s="168"/>
+      <c r="F59" s="168"/>
+      <c r="G59" s="174" t="s">
         <v>189</v>
       </c>
-      <c r="H59" s="177"/>
-      <c r="I59" s="177"/>
-      <c r="J59" s="177"/>
-      <c r="K59" s="177"/>
-      <c r="L59" s="177"/>
-      <c r="M59" s="177"/>
-      <c r="N59" s="177"/>
-      <c r="O59" s="177"/>
-      <c r="P59" s="177"/>
-      <c r="Q59" s="177"/>
-      <c r="R59" s="158" t="s">
+      <c r="H59" s="174"/>
+      <c r="I59" s="174"/>
+      <c r="J59" s="174"/>
+      <c r="K59" s="174"/>
+      <c r="L59" s="174"/>
+      <c r="M59" s="174"/>
+      <c r="N59" s="174"/>
+      <c r="O59" s="174"/>
+      <c r="P59" s="174"/>
+      <c r="Q59" s="174"/>
+      <c r="R59" s="161" t="s">
         <v>166</v>
       </c>
-      <c r="S59" s="158"/>
-      <c r="T59" s="158"/>
-      <c r="U59" s="191"/>
-      <c r="V59" s="191"/>
-      <c r="W59" s="191"/>
+      <c r="S59" s="161"/>
+      <c r="T59" s="161"/>
+      <c r="U59" s="218"/>
+      <c r="V59" s="218"/>
+      <c r="W59" s="218"/>
       <c r="X59" s="20" t="s">
         <v>46</v>
       </c>
@@ -5841,27 +5718,27 @@
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
-      <c r="G60" s="168" t="s">
+      <c r="G60" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="H60" s="168"/>
-      <c r="I60" s="168"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="168"/>
-      <c r="M60" s="168"/>
-      <c r="N60" s="168"/>
-      <c r="O60" s="168"/>
-      <c r="P60" s="168"/>
-      <c r="Q60" s="168"/>
-      <c r="R60" s="169" t="s">
+      <c r="H60" s="165"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="165"/>
+      <c r="L60" s="165"/>
+      <c r="M60" s="165"/>
+      <c r="N60" s="165"/>
+      <c r="O60" s="165"/>
+      <c r="P60" s="165"/>
+      <c r="Q60" s="165"/>
+      <c r="R60" s="166" t="s">
         <v>162</v>
       </c>
-      <c r="S60" s="169"/>
-      <c r="T60" s="169"/>
-      <c r="U60" s="147"/>
-      <c r="V60" s="147"/>
-      <c r="W60" s="147"/>
+      <c r="S60" s="166"/>
+      <c r="T60" s="166"/>
+      <c r="U60" s="217"/>
+      <c r="V60" s="217"/>
+      <c r="W60" s="217"/>
       <c r="X60" s="21" t="s">
         <v>46</v>
       </c>
@@ -5898,31 +5775,31 @@
     <row r="61" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="188" t="s">
+      <c r="C61" s="181" t="s">
         <v>174</v>
       </c>
-      <c r="D61" s="171"/>
-      <c r="E61" s="171"/>
-      <c r="F61" s="171"/>
-      <c r="G61" s="164" t="s">
+      <c r="D61" s="168"/>
+      <c r="E61" s="168"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="H61" s="164"/>
-      <c r="I61" s="210"/>
-      <c r="J61" s="210"/>
-      <c r="K61" s="210"/>
-      <c r="L61" s="210"/>
-      <c r="M61" s="210"/>
-      <c r="N61" s="210"/>
-      <c r="O61" s="210"/>
+      <c r="H61" s="163"/>
+      <c r="I61" s="195"/>
+      <c r="J61" s="195"/>
+      <c r="K61" s="195"/>
+      <c r="L61" s="195"/>
+      <c r="M61" s="195"/>
+      <c r="N61" s="195"/>
+      <c r="O61" s="195"/>
       <c r="P61" s="3"/>
-      <c r="Q61" s="171"/>
-      <c r="R61" s="173"/>
-      <c r="S61" s="173"/>
+      <c r="Q61" s="168"/>
+      <c r="R61" s="170"/>
+      <c r="S61" s="170"/>
       <c r="T61" s="3"/>
-      <c r="U61" s="146"/>
-      <c r="V61" s="146"/>
-      <c r="W61" s="146"/>
+      <c r="U61" s="218"/>
+      <c r="V61" s="218"/>
+      <c r="W61" s="218"/>
       <c r="X61" s="22" t="s">
         <v>46</v>
       </c>
@@ -5959,28 +5836,28 @@
     <row r="62" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="59"/>
       <c r="B62" s="52"/>
-      <c r="C62" s="182"/>
-      <c r="D62" s="182"/>
-      <c r="E62" s="182"/>
-      <c r="F62" s="182"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="182"/>
-      <c r="I62" s="182"/>
-      <c r="J62" s="182"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
+      <c r="E62" s="179"/>
+      <c r="F62" s="179"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="179"/>
+      <c r="I62" s="179"/>
+      <c r="J62" s="179"/>
       <c r="K62" s="18"/>
-      <c r="L62" s="215"/>
-      <c r="M62" s="216"/>
-      <c r="N62" s="216"/>
-      <c r="O62" s="216"/>
+      <c r="L62" s="210"/>
+      <c r="M62" s="211"/>
+      <c r="N62" s="211"/>
+      <c r="O62" s="211"/>
       <c r="P62" s="18"/>
-      <c r="Q62" s="182"/>
-      <c r="R62" s="182"/>
-      <c r="S62" s="182"/>
+      <c r="Q62" s="179"/>
+      <c r="R62" s="179"/>
+      <c r="S62" s="179"/>
       <c r="T62" s="18"/>
-      <c r="U62" s="190"/>
-      <c r="V62" s="190"/>
-      <c r="W62" s="190"/>
-      <c r="X62" s="190"/>
+      <c r="U62" s="183"/>
+      <c r="V62" s="183"/>
+      <c r="W62" s="183"/>
+      <c r="X62" s="183"/>
       <c r="Y62" s="115"/>
       <c r="Z62" s="109"/>
       <c r="AA62" s="126" t="s">
@@ -6014,34 +5891,34 @@
     <row r="63" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="214" t="s">
+      <c r="C63" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="214"/>
-      <c r="E63" s="214"/>
-      <c r="F63" s="214"/>
-      <c r="G63" s="181" t="s">
+      <c r="D63" s="209"/>
+      <c r="E63" s="209"/>
+      <c r="F63" s="209"/>
+      <c r="G63" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="H63" s="181"/>
-      <c r="I63" s="181"/>
-      <c r="J63" s="181"/>
-      <c r="K63" s="181"/>
-      <c r="L63" s="181"/>
-      <c r="M63" s="181"/>
-      <c r="N63" s="181"/>
-      <c r="O63" s="181"/>
-      <c r="P63" s="181"/>
+      <c r="H63" s="178"/>
+      <c r="I63" s="178"/>
+      <c r="J63" s="178"/>
+      <c r="K63" s="178"/>
+      <c r="L63" s="178"/>
+      <c r="M63" s="178"/>
+      <c r="N63" s="178"/>
+      <c r="O63" s="178"/>
+      <c r="P63" s="178"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="159" t="s">
+      <c r="R63" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="S63" s="159"/>
-      <c r="T63" s="159"/>
-      <c r="U63" s="148"/>
-      <c r="V63" s="148"/>
-      <c r="W63" s="148"/>
-      <c r="X63" s="148"/>
+      <c r="S63" s="158"/>
+      <c r="T63" s="158"/>
+      <c r="U63" s="218"/>
+      <c r="V63" s="218"/>
+      <c r="W63" s="218"/>
+      <c r="X63" s="218"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="129" t="s">
@@ -6075,34 +5952,34 @@
     <row r="64" spans="1:51" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="59"/>
       <c r="B64" s="52"/>
-      <c r="C64" s="212" t="s">
+      <c r="C64" s="208" t="s">
         <v>167</v>
       </c>
-      <c r="D64" s="212"/>
-      <c r="E64" s="212"/>
-      <c r="F64" s="212"/>
-      <c r="G64" s="182" t="s">
+      <c r="D64" s="208"/>
+      <c r="E64" s="208"/>
+      <c r="F64" s="208"/>
+      <c r="G64" s="179" t="s">
         <v>107</v>
       </c>
-      <c r="H64" s="182"/>
-      <c r="I64" s="182"/>
-      <c r="J64" s="182"/>
-      <c r="K64" s="182"/>
-      <c r="L64" s="182"/>
-      <c r="M64" s="182"/>
-      <c r="N64" s="182"/>
-      <c r="O64" s="182"/>
-      <c r="P64" s="182"/>
+      <c r="H64" s="179"/>
+      <c r="I64" s="179"/>
+      <c r="J64" s="179"/>
+      <c r="K64" s="179"/>
+      <c r="L64" s="179"/>
+      <c r="M64" s="179"/>
+      <c r="N64" s="179"/>
+      <c r="O64" s="179"/>
+      <c r="P64" s="179"/>
       <c r="Q64" s="18"/>
-      <c r="R64" s="162" t="s">
+      <c r="R64" s="160" t="s">
         <v>217</v>
       </c>
-      <c r="S64" s="162"/>
-      <c r="T64" s="162"/>
-      <c r="U64" s="147"/>
-      <c r="V64" s="147"/>
-      <c r="W64" s="147"/>
-      <c r="X64" s="147"/>
+      <c r="S64" s="160"/>
+      <c r="T64" s="160"/>
+      <c r="U64" s="217"/>
+      <c r="V64" s="217"/>
+      <c r="W64" s="217"/>
+      <c r="X64" s="217"/>
       <c r="Y64" s="57"/>
       <c r="Z64" s="59"/>
       <c r="AA64" s="85"/>
@@ -6121,12 +5998,12 @@
       <c r="AN64" s="78"/>
       <c r="AO64" s="78"/>
       <c r="AP64" s="78"/>
-      <c r="AQ64" s="165"/>
-      <c r="AR64" s="165"/>
-      <c r="AS64" s="165"/>
-      <c r="AT64" s="165"/>
-      <c r="AU64" s="165"/>
-      <c r="AV64" s="165"/>
+      <c r="AQ64" s="180"/>
+      <c r="AR64" s="180"/>
+      <c r="AS64" s="180"/>
+      <c r="AT64" s="180"/>
+      <c r="AU64" s="180"/>
+      <c r="AV64" s="180"/>
       <c r="AW64" s="86"/>
       <c r="AX64" s="86"/>
       <c r="AY64" s="57"/>
@@ -6138,27 +6015,27 @@
       <c r="D65" s="87"/>
       <c r="E65" s="87"/>
       <c r="F65" s="87"/>
-      <c r="G65" s="173" t="s">
+      <c r="G65" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="H65" s="173"/>
-      <c r="I65" s="173"/>
-      <c r="J65" s="173"/>
-      <c r="K65" s="173"/>
-      <c r="L65" s="173"/>
-      <c r="M65" s="173"/>
-      <c r="N65" s="173"/>
-      <c r="O65" s="173"/>
-      <c r="P65" s="173"/>
-      <c r="R65" s="158" t="s">
+      <c r="H65" s="170"/>
+      <c r="I65" s="170"/>
+      <c r="J65" s="170"/>
+      <c r="K65" s="170"/>
+      <c r="L65" s="170"/>
+      <c r="M65" s="170"/>
+      <c r="N65" s="170"/>
+      <c r="O65" s="170"/>
+      <c r="P65" s="170"/>
+      <c r="R65" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="S65" s="158"/>
-      <c r="T65" s="158"/>
-      <c r="U65" s="146"/>
-      <c r="V65" s="146"/>
-      <c r="W65" s="146"/>
-      <c r="X65" s="146"/>
+      <c r="S65" s="161"/>
+      <c r="T65" s="161"/>
+      <c r="U65" s="218"/>
+      <c r="V65" s="218"/>
+      <c r="W65" s="218"/>
+      <c r="X65" s="218"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="23"/>
       <c r="AA65" s="81" t="s">
@@ -6179,16 +6056,16 @@
       <c r="AN65" s="24"/>
       <c r="AO65" s="25"/>
       <c r="AP65" s="25"/>
-      <c r="AQ65" s="166" t="s">
+      <c r="AQ65" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="AR65" s="166"/>
-      <c r="AS65" s="166"/>
-      <c r="AT65" s="166" t="s">
+      <c r="AR65" s="196"/>
+      <c r="AS65" s="196"/>
+      <c r="AT65" s="196" t="s">
         <v>54</v>
       </c>
-      <c r="AU65" s="166"/>
-      <c r="AV65" s="166"/>
+      <c r="AU65" s="196"/>
+      <c r="AV65" s="196"/>
       <c r="AW65" s="83"/>
       <c r="AX65" s="83"/>
       <c r="AY65" s="28"/>
@@ -6200,28 +6077,28 @@
       <c r="D66" s="88"/>
       <c r="E66" s="88"/>
       <c r="F66" s="88"/>
-      <c r="G66" s="182" t="s">
+      <c r="G66" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="H66" s="182"/>
-      <c r="I66" s="182"/>
-      <c r="J66" s="182"/>
-      <c r="K66" s="182"/>
-      <c r="L66" s="182"/>
-      <c r="M66" s="182"/>
-      <c r="N66" s="182"/>
-      <c r="O66" s="182"/>
-      <c r="P66" s="182"/>
+      <c r="H66" s="179"/>
+      <c r="I66" s="179"/>
+      <c r="J66" s="179"/>
+      <c r="K66" s="179"/>
+      <c r="L66" s="179"/>
+      <c r="M66" s="179"/>
+      <c r="N66" s="179"/>
+      <c r="O66" s="179"/>
+      <c r="P66" s="179"/>
       <c r="Q66" s="18"/>
-      <c r="R66" s="169" t="s">
+      <c r="R66" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="S66" s="169"/>
-      <c r="T66" s="169"/>
-      <c r="U66" s="147"/>
-      <c r="V66" s="147"/>
-      <c r="W66" s="147"/>
-      <c r="X66" s="147"/>
+      <c r="S66" s="166"/>
+      <c r="T66" s="166"/>
+      <c r="U66" s="217"/>
+      <c r="V66" s="217"/>
+      <c r="W66" s="217"/>
+      <c r="X66" s="217"/>
       <c r="Y66" s="57"/>
       <c r="Z66" s="59"/>
       <c r="AA66" s="85"/>
@@ -6240,12 +6117,12 @@
       <c r="AN66" s="78"/>
       <c r="AO66" s="78"/>
       <c r="AP66" s="78"/>
-      <c r="AQ66" s="165"/>
-      <c r="AR66" s="165"/>
-      <c r="AS66" s="165"/>
-      <c r="AT66" s="165"/>
-      <c r="AU66" s="165"/>
-      <c r="AV66" s="165"/>
+      <c r="AQ66" s="180"/>
+      <c r="AR66" s="180"/>
+      <c r="AS66" s="180"/>
+      <c r="AT66" s="180"/>
+      <c r="AU66" s="180"/>
+      <c r="AV66" s="180"/>
       <c r="AW66" s="113"/>
       <c r="AX66" s="113"/>
       <c r="AY66" s="57"/>
@@ -6253,27 +6130,27 @@
     <row r="67" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
-      <c r="G67" s="173" t="s">
+      <c r="G67" s="170" t="s">
         <v>175</v>
       </c>
-      <c r="H67" s="173"/>
-      <c r="I67" s="173"/>
-      <c r="J67" s="173"/>
-      <c r="K67" s="173"/>
-      <c r="L67" s="173"/>
-      <c r="M67" s="173"/>
-      <c r="N67" s="173"/>
-      <c r="O67" s="173"/>
-      <c r="P67" s="173"/>
-      <c r="R67" s="158" t="s">
+      <c r="H67" s="170"/>
+      <c r="I67" s="170"/>
+      <c r="J67" s="170"/>
+      <c r="K67" s="170"/>
+      <c r="L67" s="170"/>
+      <c r="M67" s="170"/>
+      <c r="N67" s="170"/>
+      <c r="O67" s="170"/>
+      <c r="P67" s="170"/>
+      <c r="R67" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="S67" s="158"/>
-      <c r="T67" s="158"/>
-      <c r="U67" s="146"/>
-      <c r="V67" s="146"/>
-      <c r="W67" s="146"/>
-      <c r="X67" s="146"/>
+      <c r="S67" s="161"/>
+      <c r="T67" s="161"/>
+      <c r="U67" s="218"/>
+      <c r="V67" s="218"/>
+      <c r="W67" s="218"/>
+      <c r="X67" s="218"/>
       <c r="Y67" s="68"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="74" t="s">
@@ -6302,8 +6179,8 @@
       <c r="AR67" s="11"/>
       <c r="AS67" s="11"/>
       <c r="AT67" s="11"/>
-      <c r="AU67" s="148"/>
-      <c r="AV67" s="148"/>
+      <c r="AU67" s="218"/>
+      <c r="AV67" s="218"/>
       <c r="AW67" s="11"/>
       <c r="AX67" s="11"/>
       <c r="AY67" s="4"/>
@@ -6315,28 +6192,28 @@
       <c r="D68" s="52"/>
       <c r="E68" s="52"/>
       <c r="F68" s="52"/>
-      <c r="G68" s="168" t="s">
+      <c r="G68" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="H68" s="168"/>
-      <c r="I68" s="168"/>
-      <c r="J68" s="168"/>
-      <c r="K68" s="168"/>
-      <c r="L68" s="168"/>
-      <c r="M68" s="168"/>
-      <c r="N68" s="168"/>
-      <c r="O68" s="168"/>
-      <c r="P68" s="168"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="165"/>
+      <c r="M68" s="165"/>
+      <c r="N68" s="165"/>
+      <c r="O68" s="165"/>
+      <c r="P68" s="165"/>
       <c r="Q68" s="18"/>
-      <c r="R68" s="169" t="s">
+      <c r="R68" s="166" t="s">
         <v>220</v>
       </c>
-      <c r="S68" s="169"/>
-      <c r="T68" s="169"/>
-      <c r="U68" s="147"/>
-      <c r="V68" s="147"/>
-      <c r="W68" s="147"/>
-      <c r="X68" s="147"/>
+      <c r="S68" s="166"/>
+      <c r="T68" s="166"/>
+      <c r="U68" s="217"/>
+      <c r="V68" s="217"/>
+      <c r="W68" s="217"/>
+      <c r="X68" s="217"/>
       <c r="Y68" s="64"/>
       <c r="Z68" s="59"/>
       <c r="AA68" s="78"/>
@@ -6363,36 +6240,36 @@
       <c r="AR68" s="112"/>
       <c r="AS68" s="112"/>
       <c r="AT68" s="112"/>
-      <c r="AU68" s="147"/>
-      <c r="AV68" s="147"/>
+      <c r="AU68" s="217"/>
+      <c r="AV68" s="217"/>
       <c r="AW68" s="112"/>
       <c r="AX68" s="112"/>
       <c r="AY68" s="64"/>
     </row>
     <row r="69" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="G69" s="180" t="s">
+      <c r="G69" s="177" t="s">
         <v>141</v>
       </c>
-      <c r="H69" s="180"/>
-      <c r="I69" s="180"/>
-      <c r="J69" s="180"/>
-      <c r="K69" s="180"/>
-      <c r="L69" s="180"/>
-      <c r="M69" s="180"/>
-      <c r="N69" s="180"/>
-      <c r="O69" s="180"/>
-      <c r="P69" s="180"/>
+      <c r="H69" s="177"/>
+      <c r="I69" s="177"/>
+      <c r="J69" s="177"/>
+      <c r="K69" s="177"/>
+      <c r="L69" s="177"/>
+      <c r="M69" s="177"/>
+      <c r="N69" s="177"/>
+      <c r="O69" s="177"/>
+      <c r="P69" s="177"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="158" t="s">
+      <c r="R69" s="161" t="s">
         <v>218</v>
       </c>
-      <c r="S69" s="158"/>
-      <c r="T69" s="158"/>
-      <c r="U69" s="146"/>
-      <c r="V69" s="146"/>
-      <c r="W69" s="146"/>
-      <c r="X69" s="146"/>
+      <c r="S69" s="161"/>
+      <c r="T69" s="161"/>
+      <c r="U69" s="218"/>
+      <c r="V69" s="218"/>
+      <c r="W69" s="218"/>
+      <c r="X69" s="218"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="3"/>
@@ -6419,8 +6296,8 @@
       <c r="AR69" s="11"/>
       <c r="AS69" s="11"/>
       <c r="AT69" s="11"/>
-      <c r="AU69" s="148"/>
-      <c r="AV69" s="148"/>
+      <c r="AU69" s="218"/>
+      <c r="AV69" s="218"/>
       <c r="AY69" s="4"/>
     </row>
     <row r="70" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6441,9 +6318,9 @@
       <c r="O70" s="52"/>
       <c r="P70" s="52"/>
       <c r="Q70" s="52"/>
-      <c r="R70" s="168"/>
-      <c r="S70" s="168"/>
-      <c r="T70" s="168"/>
+      <c r="R70" s="165"/>
+      <c r="S70" s="165"/>
+      <c r="T70" s="165"/>
       <c r="U70" s="92"/>
       <c r="V70" s="92"/>
       <c r="W70" s="92"/>
@@ -6474,10 +6351,8 @@
       <c r="AR70" s="112"/>
       <c r="AS70" s="112"/>
       <c r="AT70" s="112"/>
-      <c r="AU70" s="147">
-        <v>1</v>
-      </c>
-      <c r="AV70" s="147"/>
+      <c r="AU70" s="217"/>
+      <c r="AV70" s="217"/>
       <c r="AW70" s="90"/>
       <c r="AX70" s="90"/>
       <c r="AY70" s="64"/>
@@ -6485,34 +6360,34 @@
     <row r="71" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="94"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="167" t="s">
+      <c r="C71" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="167"/>
-      <c r="E71" s="167"/>
-      <c r="F71" s="167"/>
-      <c r="G71" s="172" t="s">
+      <c r="D71" s="164"/>
+      <c r="E71" s="164"/>
+      <c r="F71" s="164"/>
+      <c r="G71" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="H71" s="172"/>
-      <c r="I71" s="172"/>
-      <c r="J71" s="172"/>
-      <c r="K71" s="172"/>
-      <c r="L71" s="172"/>
-      <c r="M71" s="172"/>
-      <c r="N71" s="172"/>
-      <c r="O71" s="172"/>
-      <c r="P71" s="172"/>
+      <c r="H71" s="169"/>
+      <c r="I71" s="169"/>
+      <c r="J71" s="169"/>
+      <c r="K71" s="169"/>
+      <c r="L71" s="169"/>
+      <c r="M71" s="169"/>
+      <c r="N71" s="169"/>
+      <c r="O71" s="169"/>
+      <c r="P71" s="169"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="158" t="s">
+      <c r="R71" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="S71" s="158"/>
-      <c r="T71" s="158"/>
-      <c r="U71" s="148"/>
-      <c r="V71" s="148"/>
-      <c r="W71" s="148"/>
-      <c r="X71" s="148"/>
+      <c r="S71" s="161"/>
+      <c r="T71" s="161"/>
+      <c r="U71" s="218"/>
+      <c r="V71" s="218"/>
+      <c r="W71" s="218"/>
+      <c r="X71" s="218"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="2"/>
       <c r="AB71" s="39"/>
@@ -6549,28 +6424,28 @@
       <c r="D72" s="90"/>
       <c r="E72" s="90"/>
       <c r="F72" s="90"/>
-      <c r="G72" s="182" t="s">
+      <c r="G72" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="182"/>
-      <c r="I72" s="182"/>
-      <c r="J72" s="182"/>
-      <c r="K72" s="182"/>
-      <c r="L72" s="182"/>
-      <c r="M72" s="182"/>
-      <c r="N72" s="182"/>
-      <c r="O72" s="182"/>
-      <c r="P72" s="182"/>
+      <c r="H72" s="179"/>
+      <c r="I72" s="179"/>
+      <c r="J72" s="179"/>
+      <c r="K72" s="179"/>
+      <c r="L72" s="179"/>
+      <c r="M72" s="179"/>
+      <c r="N72" s="179"/>
+      <c r="O72" s="179"/>
+      <c r="P72" s="179"/>
       <c r="Q72" s="18"/>
-      <c r="R72" s="169" t="s">
+      <c r="R72" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="S72" s="169"/>
-      <c r="T72" s="169"/>
-      <c r="U72" s="147"/>
-      <c r="V72" s="147"/>
-      <c r="W72" s="147"/>
-      <c r="X72" s="147"/>
+      <c r="S72" s="166"/>
+      <c r="T72" s="166"/>
+      <c r="U72" s="217"/>
+      <c r="V72" s="217"/>
+      <c r="W72" s="217"/>
+      <c r="X72" s="217"/>
       <c r="Y72" s="64"/>
       <c r="Z72" s="59"/>
       <c r="AA72" s="90" t="s">
@@ -6599,8 +6474,8 @@
       <c r="AR72" s="112"/>
       <c r="AS72" s="112"/>
       <c r="AT72" s="112"/>
-      <c r="AU72" s="161"/>
-      <c r="AV72" s="161"/>
+      <c r="AU72" s="217"/>
+      <c r="AV72" s="217"/>
       <c r="AW72" s="114"/>
       <c r="AX72" s="114"/>
       <c r="AY72" s="64"/>
@@ -6637,8 +6512,8 @@
       <c r="AR73" s="11"/>
       <c r="AS73" s="11"/>
       <c r="AT73" s="11"/>
-      <c r="AU73" s="148"/>
-      <c r="AV73" s="148"/>
+      <c r="AU73" s="218"/>
+      <c r="AV73" s="218"/>
       <c r="AW73" s="91"/>
       <c r="AX73" s="91"/>
       <c r="AY73" s="4"/>
@@ -6652,30 +6527,28 @@
       <c r="D74" s="93"/>
       <c r="E74" s="93"/>
       <c r="F74" s="93"/>
-      <c r="G74" s="170" t="s">
+      <c r="G74" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="H74" s="170"/>
-      <c r="I74" s="170"/>
-      <c r="J74" s="170"/>
-      <c r="K74" s="170"/>
-      <c r="L74" s="170"/>
-      <c r="M74" s="170"/>
-      <c r="N74" s="170"/>
-      <c r="O74" s="170"/>
-      <c r="P74" s="170"/>
-      <c r="Q74" s="170"/>
-      <c r="R74" s="169" t="s">
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="167"/>
+      <c r="L74" s="167"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="167"/>
+      <c r="O74" s="167"/>
+      <c r="P74" s="167"/>
+      <c r="Q74" s="167"/>
+      <c r="R74" s="166" t="s">
         <v>169</v>
       </c>
-      <c r="S74" s="169"/>
-      <c r="T74" s="169"/>
-      <c r="U74" s="161">
-        <v>6</v>
-      </c>
-      <c r="V74" s="161"/>
-      <c r="W74" s="161"/>
-      <c r="X74" s="161"/>
+      <c r="S74" s="166"/>
+      <c r="T74" s="166"/>
+      <c r="U74" s="217"/>
+      <c r="V74" s="217"/>
+      <c r="W74" s="217"/>
+      <c r="X74" s="217"/>
       <c r="Y74" s="57"/>
       <c r="Z74" s="95"/>
       <c r="AA74" s="96"/>
@@ -6711,28 +6584,28 @@
       <c r="D75" s="91"/>
       <c r="E75" s="91"/>
       <c r="F75" s="91"/>
-      <c r="G75" s="172" t="s">
+      <c r="G75" s="169" t="s">
         <v>203</v>
       </c>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="172"/>
-      <c r="K75" s="172"/>
-      <c r="L75" s="172"/>
-      <c r="M75" s="172"/>
-      <c r="N75" s="172"/>
-      <c r="O75" s="172"/>
-      <c r="P75" s="172"/>
-      <c r="Q75" s="172"/>
-      <c r="R75" s="158" t="s">
+      <c r="H75" s="169"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="169"/>
+      <c r="K75" s="169"/>
+      <c r="L75" s="169"/>
+      <c r="M75" s="169"/>
+      <c r="N75" s="169"/>
+      <c r="O75" s="169"/>
+      <c r="P75" s="169"/>
+      <c r="Q75" s="169"/>
+      <c r="R75" s="161" t="s">
         <v>184</v>
       </c>
-      <c r="S75" s="158"/>
-      <c r="T75" s="158"/>
-      <c r="U75" s="146"/>
-      <c r="V75" s="146"/>
-      <c r="W75" s="146"/>
-      <c r="X75" s="146"/>
+      <c r="S75" s="161"/>
+      <c r="T75" s="161"/>
+      <c r="U75" s="218"/>
+      <c r="V75" s="218"/>
+      <c r="W75" s="218"/>
+      <c r="X75" s="218"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="2"/>
       <c r="AA75" s="107"/>
@@ -6768,56 +6641,56 @@
       <c r="D76" s="93"/>
       <c r="E76" s="93"/>
       <c r="F76" s="93"/>
-      <c r="G76" s="170" t="s">
+      <c r="G76" s="167" t="s">
         <v>201</v>
       </c>
-      <c r="H76" s="170"/>
-      <c r="I76" s="170"/>
-      <c r="J76" s="170"/>
-      <c r="K76" s="170"/>
-      <c r="L76" s="170"/>
-      <c r="M76" s="170"/>
-      <c r="N76" s="170"/>
-      <c r="O76" s="170"/>
-      <c r="P76" s="170"/>
-      <c r="Q76" s="170"/>
-      <c r="R76" s="169" t="s">
+      <c r="H76" s="167"/>
+      <c r="I76" s="167"/>
+      <c r="J76" s="167"/>
+      <c r="K76" s="167"/>
+      <c r="L76" s="167"/>
+      <c r="M76" s="167"/>
+      <c r="N76" s="167"/>
+      <c r="O76" s="167"/>
+      <c r="P76" s="167"/>
+      <c r="Q76" s="167"/>
+      <c r="R76" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="S76" s="169"/>
-      <c r="T76" s="169"/>
-      <c r="U76" s="147"/>
-      <c r="V76" s="147"/>
-      <c r="W76" s="147"/>
-      <c r="X76" s="147"/>
+      <c r="S76" s="166"/>
+      <c r="T76" s="166"/>
+      <c r="U76" s="217"/>
+      <c r="V76" s="217"/>
+      <c r="W76" s="217"/>
+      <c r="X76" s="217"/>
       <c r="Y76" s="57"/>
       <c r="Z76" s="109"/>
-      <c r="AA76" s="211" t="s">
+      <c r="AA76" s="207" t="s">
         <v>90</v>
       </c>
-      <c r="AB76" s="211"/>
-      <c r="AC76" s="211"/>
-      <c r="AD76" s="211"/>
-      <c r="AE76" s="211"/>
-      <c r="AF76" s="211"/>
-      <c r="AG76" s="211"/>
-      <c r="AH76" s="211"/>
-      <c r="AI76" s="211"/>
-      <c r="AJ76" s="211"/>
-      <c r="AK76" s="211"/>
-      <c r="AL76" s="211"/>
-      <c r="AM76" s="211"/>
-      <c r="AN76" s="211"/>
-      <c r="AO76" s="211"/>
-      <c r="AP76" s="211"/>
-      <c r="AQ76" s="211"/>
-      <c r="AR76" s="211"/>
-      <c r="AS76" s="211"/>
-      <c r="AT76" s="211"/>
-      <c r="AU76" s="211"/>
-      <c r="AV76" s="211"/>
-      <c r="AW76" s="211"/>
-      <c r="AX76" s="211"/>
+      <c r="AB76" s="207"/>
+      <c r="AC76" s="207"/>
+      <c r="AD76" s="207"/>
+      <c r="AE76" s="207"/>
+      <c r="AF76" s="207"/>
+      <c r="AG76" s="207"/>
+      <c r="AH76" s="207"/>
+      <c r="AI76" s="207"/>
+      <c r="AJ76" s="207"/>
+      <c r="AK76" s="207"/>
+      <c r="AL76" s="207"/>
+      <c r="AM76" s="207"/>
+      <c r="AN76" s="207"/>
+      <c r="AO76" s="207"/>
+      <c r="AP76" s="207"/>
+      <c r="AQ76" s="207"/>
+      <c r="AR76" s="207"/>
+      <c r="AS76" s="207"/>
+      <c r="AT76" s="207"/>
+      <c r="AU76" s="207"/>
+      <c r="AV76" s="207"/>
+      <c r="AW76" s="207"/>
+      <c r="AX76" s="207"/>
       <c r="AY76" s="64"/>
     </row>
     <row r="77" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6827,28 +6700,28 @@
       <c r="D77" s="91"/>
       <c r="E77" s="91"/>
       <c r="F77" s="91"/>
-      <c r="G77" s="171" t="s">
+      <c r="G77" s="168" t="s">
         <v>204</v>
       </c>
-      <c r="H77" s="171"/>
-      <c r="I77" s="171"/>
-      <c r="J77" s="171"/>
-      <c r="K77" s="171"/>
-      <c r="L77" s="171"/>
-      <c r="M77" s="171"/>
-      <c r="N77" s="171"/>
-      <c r="O77" s="171"/>
-      <c r="P77" s="171"/>
-      <c r="Q77" s="171"/>
-      <c r="R77" s="158" t="s">
+      <c r="H77" s="168"/>
+      <c r="I77" s="168"/>
+      <c r="J77" s="168"/>
+      <c r="K77" s="168"/>
+      <c r="L77" s="168"/>
+      <c r="M77" s="168"/>
+      <c r="N77" s="168"/>
+      <c r="O77" s="168"/>
+      <c r="P77" s="168"/>
+      <c r="Q77" s="168"/>
+      <c r="R77" s="161" t="s">
         <v>186</v>
       </c>
-      <c r="S77" s="158"/>
-      <c r="T77" s="158"/>
-      <c r="U77" s="146"/>
-      <c r="V77" s="146"/>
-      <c r="W77" s="146"/>
-      <c r="X77" s="146"/>
+      <c r="S77" s="161"/>
+      <c r="T77" s="161"/>
+      <c r="U77" s="218"/>
+      <c r="V77" s="218"/>
+      <c r="W77" s="218"/>
+      <c r="X77" s="218"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="19"/>
@@ -6865,8 +6738,8 @@
       <c r="AR77" s="11"/>
       <c r="AS77" s="11"/>
       <c r="AT77" s="11"/>
-      <c r="AU77" s="148"/>
-      <c r="AV77" s="148"/>
+      <c r="AU77" s="218"/>
+      <c r="AV77" s="218"/>
       <c r="AW77" s="99"/>
       <c r="AX77" s="19"/>
       <c r="AY77" s="4"/>
@@ -6878,28 +6751,28 @@
       <c r="D78" s="93"/>
       <c r="E78" s="93"/>
       <c r="F78" s="93"/>
-      <c r="G78" s="170" t="s">
+      <c r="G78" s="167" t="s">
         <v>205</v>
       </c>
-      <c r="H78" s="170"/>
-      <c r="I78" s="170"/>
-      <c r="J78" s="170"/>
-      <c r="K78" s="170"/>
-      <c r="L78" s="170"/>
-      <c r="M78" s="170"/>
-      <c r="N78" s="170"/>
-      <c r="O78" s="170"/>
-      <c r="P78" s="170"/>
-      <c r="Q78" s="170"/>
-      <c r="R78" s="169" t="s">
+      <c r="H78" s="167"/>
+      <c r="I78" s="167"/>
+      <c r="J78" s="167"/>
+      <c r="K78" s="167"/>
+      <c r="L78" s="167"/>
+      <c r="M78" s="167"/>
+      <c r="N78" s="167"/>
+      <c r="O78" s="167"/>
+      <c r="P78" s="167"/>
+      <c r="Q78" s="167"/>
+      <c r="R78" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="S78" s="169"/>
-      <c r="T78" s="169"/>
-      <c r="U78" s="147"/>
-      <c r="V78" s="147"/>
-      <c r="W78" s="147"/>
-      <c r="X78" s="147"/>
+      <c r="S78" s="166"/>
+      <c r="T78" s="166"/>
+      <c r="U78" s="217"/>
+      <c r="V78" s="217"/>
+      <c r="W78" s="217"/>
+      <c r="X78" s="217"/>
       <c r="Y78" s="57"/>
       <c r="Z78" s="109"/>
       <c r="AA78" s="62"/>
@@ -6926,8 +6799,8 @@
       <c r="AR78" s="112"/>
       <c r="AS78" s="112"/>
       <c r="AT78" s="112"/>
-      <c r="AU78" s="147"/>
-      <c r="AV78" s="147"/>
+      <c r="AU78" s="217"/>
+      <c r="AV78" s="217"/>
       <c r="AW78" s="111"/>
       <c r="AX78" s="62"/>
       <c r="AY78" s="64"/>
@@ -6939,28 +6812,28 @@
       <c r="D79" s="91"/>
       <c r="E79" s="91"/>
       <c r="F79" s="91"/>
-      <c r="G79" s="171" t="s">
+      <c r="G79" s="168" t="s">
         <v>206</v>
       </c>
-      <c r="H79" s="171"/>
-      <c r="I79" s="171"/>
-      <c r="J79" s="171"/>
-      <c r="K79" s="171"/>
-      <c r="L79" s="171"/>
-      <c r="M79" s="171"/>
-      <c r="N79" s="171"/>
-      <c r="O79" s="171"/>
-      <c r="P79" s="171"/>
-      <c r="Q79" s="171"/>
-      <c r="R79" s="158" t="s">
+      <c r="H79" s="168"/>
+      <c r="I79" s="168"/>
+      <c r="J79" s="168"/>
+      <c r="K79" s="168"/>
+      <c r="L79" s="168"/>
+      <c r="M79" s="168"/>
+      <c r="N79" s="168"/>
+      <c r="O79" s="168"/>
+      <c r="P79" s="168"/>
+      <c r="Q79" s="168"/>
+      <c r="R79" s="161" t="s">
         <v>170</v>
       </c>
-      <c r="S79" s="158"/>
-      <c r="T79" s="158"/>
-      <c r="U79" s="146"/>
-      <c r="V79" s="146"/>
-      <c r="W79" s="146"/>
-      <c r="X79" s="146"/>
+      <c r="S79" s="161"/>
+      <c r="T79" s="161"/>
+      <c r="U79" s="218"/>
+      <c r="V79" s="218"/>
+      <c r="W79" s="218"/>
+      <c r="X79" s="218"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="2"/>
       <c r="AA79" s="19"/>
@@ -6977,8 +6850,8 @@
       <c r="AR79" s="11"/>
       <c r="AS79" s="11"/>
       <c r="AT79" s="11"/>
-      <c r="AU79" s="146"/>
-      <c r="AV79" s="146"/>
+      <c r="AU79" s="218"/>
+      <c r="AV79" s="218"/>
       <c r="AW79" s="99"/>
       <c r="AX79" s="19"/>
       <c r="AY79" s="4"/>
@@ -6990,28 +6863,28 @@
       <c r="D80" s="93"/>
       <c r="E80" s="93"/>
       <c r="F80" s="93"/>
-      <c r="G80" s="170" t="s">
+      <c r="G80" s="167" t="s">
         <v>207</v>
       </c>
-      <c r="H80" s="170"/>
-      <c r="I80" s="170"/>
-      <c r="J80" s="170"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="170"/>
-      <c r="M80" s="170"/>
-      <c r="N80" s="170"/>
-      <c r="O80" s="170"/>
-      <c r="P80" s="170"/>
-      <c r="Q80" s="170"/>
-      <c r="R80" s="169" t="s">
+      <c r="H80" s="167"/>
+      <c r="I80" s="167"/>
+      <c r="J80" s="167"/>
+      <c r="K80" s="167"/>
+      <c r="L80" s="167"/>
+      <c r="M80" s="167"/>
+      <c r="N80" s="167"/>
+      <c r="O80" s="167"/>
+      <c r="P80" s="167"/>
+      <c r="Q80" s="167"/>
+      <c r="R80" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="S80" s="169"/>
-      <c r="T80" s="169"/>
-      <c r="U80" s="147"/>
-      <c r="V80" s="147"/>
-      <c r="W80" s="147"/>
-      <c r="X80" s="147"/>
+      <c r="S80" s="166"/>
+      <c r="T80" s="166"/>
+      <c r="U80" s="217"/>
+      <c r="V80" s="217"/>
+      <c r="W80" s="217"/>
+      <c r="X80" s="217"/>
       <c r="Y80" s="57"/>
       <c r="Z80" s="109"/>
       <c r="AA80" s="62"/>
@@ -7038,8 +6911,8 @@
       <c r="AR80" s="112"/>
       <c r="AS80" s="112"/>
       <c r="AT80" s="112"/>
-      <c r="AU80" s="147"/>
-      <c r="AV80" s="147"/>
+      <c r="AU80" s="217"/>
+      <c r="AV80" s="217"/>
       <c r="AW80" s="111"/>
       <c r="AX80" s="62"/>
       <c r="AY80" s="64"/>
@@ -7051,28 +6924,28 @@
       <c r="D81" s="91"/>
       <c r="E81" s="91"/>
       <c r="F81" s="91"/>
-      <c r="G81" s="172" t="s">
+      <c r="G81" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="H81" s="172"/>
-      <c r="I81" s="172"/>
-      <c r="J81" s="172"/>
-      <c r="K81" s="172"/>
-      <c r="L81" s="172"/>
-      <c r="M81" s="172"/>
-      <c r="N81" s="172"/>
-      <c r="O81" s="172"/>
-      <c r="P81" s="172"/>
-      <c r="Q81" s="172"/>
-      <c r="R81" s="158" t="s">
+      <c r="H81" s="169"/>
+      <c r="I81" s="169"/>
+      <c r="J81" s="169"/>
+      <c r="K81" s="169"/>
+      <c r="L81" s="169"/>
+      <c r="M81" s="169"/>
+      <c r="N81" s="169"/>
+      <c r="O81" s="169"/>
+      <c r="P81" s="169"/>
+      <c r="Q81" s="169"/>
+      <c r="R81" s="161" t="s">
         <v>176</v>
       </c>
-      <c r="S81" s="158"/>
-      <c r="T81" s="158"/>
-      <c r="U81" s="146"/>
-      <c r="V81" s="146"/>
-      <c r="W81" s="146"/>
-      <c r="X81" s="146"/>
+      <c r="S81" s="161"/>
+      <c r="T81" s="161"/>
+      <c r="U81" s="218"/>
+      <c r="V81" s="218"/>
+      <c r="W81" s="218"/>
+      <c r="X81" s="218"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="110"/>
@@ -7108,28 +6981,28 @@
       <c r="D82" s="93"/>
       <c r="E82" s="93"/>
       <c r="F82" s="93"/>
-      <c r="G82" s="170" t="s">
+      <c r="G82" s="167" t="s">
         <v>209</v>
       </c>
-      <c r="H82" s="170"/>
-      <c r="I82" s="170"/>
-      <c r="J82" s="170"/>
-      <c r="K82" s="170"/>
-      <c r="L82" s="170"/>
-      <c r="M82" s="170"/>
-      <c r="N82" s="170"/>
-      <c r="O82" s="170"/>
-      <c r="P82" s="170"/>
-      <c r="Q82" s="170"/>
-      <c r="R82" s="169" t="s">
+      <c r="H82" s="167"/>
+      <c r="I82" s="167"/>
+      <c r="J82" s="167"/>
+      <c r="K82" s="167"/>
+      <c r="L82" s="167"/>
+      <c r="M82" s="167"/>
+      <c r="N82" s="167"/>
+      <c r="O82" s="167"/>
+      <c r="P82" s="167"/>
+      <c r="Q82" s="167"/>
+      <c r="R82" s="166" t="s">
         <v>177</v>
       </c>
-      <c r="S82" s="169"/>
-      <c r="T82" s="169"/>
-      <c r="U82" s="147"/>
-      <c r="V82" s="147"/>
-      <c r="W82" s="147"/>
-      <c r="X82" s="147"/>
+      <c r="S82" s="166"/>
+      <c r="T82" s="166"/>
+      <c r="U82" s="217"/>
+      <c r="V82" s="217"/>
+      <c r="W82" s="217"/>
+      <c r="X82" s="217"/>
       <c r="Y82" s="57"/>
       <c r="Z82" s="18"/>
       <c r="AA82" s="111" t="s">
@@ -7167,32 +7040,30 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="177" t="s">
+      <c r="G83" s="174" t="s">
         <v>210</v>
       </c>
-      <c r="H83" s="177"/>
-      <c r="I83" s="177"/>
-      <c r="J83" s="177"/>
-      <c r="K83" s="177"/>
-      <c r="L83" s="177"/>
-      <c r="M83" s="177"/>
-      <c r="N83" s="177"/>
-      <c r="O83" s="177"/>
-      <c r="P83" s="177"/>
-      <c r="Q83" s="177"/>
-      <c r="R83" s="158" t="s">
+      <c r="H83" s="174"/>
+      <c r="I83" s="174"/>
+      <c r="J83" s="174"/>
+      <c r="K83" s="174"/>
+      <c r="L83" s="174"/>
+      <c r="M83" s="174"/>
+      <c r="N83" s="174"/>
+      <c r="O83" s="174"/>
+      <c r="P83" s="174"/>
+      <c r="Q83" s="174"/>
+      <c r="R83" s="161" t="s">
         <v>178</v>
       </c>
-      <c r="S83" s="158"/>
-      <c r="T83" s="158"/>
-      <c r="U83" s="146"/>
-      <c r="V83" s="146"/>
-      <c r="W83" s="146"/>
-      <c r="X83" s="146"/>
+      <c r="S83" s="161"/>
+      <c r="T83" s="161"/>
+      <c r="U83" s="218"/>
+      <c r="V83" s="218"/>
+      <c r="W83" s="218"/>
+      <c r="X83" s="218"/>
       <c r="Y83" s="4"/>
-      <c r="AA83" s="149" t="s">
-        <v>236</v>
-      </c>
+      <c r="AA83" s="149"/>
       <c r="AB83" s="150"/>
       <c r="AC83" s="150"/>
       <c r="AD83" s="150"/>
@@ -7225,28 +7096,28 @@
       <c r="D84" s="90"/>
       <c r="E84" s="90"/>
       <c r="F84" s="90"/>
-      <c r="G84" s="170" t="s">
+      <c r="G84" s="167" t="s">
         <v>211</v>
       </c>
-      <c r="H84" s="170"/>
-      <c r="I84" s="170"/>
-      <c r="J84" s="170"/>
-      <c r="K84" s="170"/>
-      <c r="L84" s="170"/>
-      <c r="M84" s="170"/>
-      <c r="N84" s="170"/>
-      <c r="O84" s="170"/>
-      <c r="P84" s="170"/>
-      <c r="Q84" s="170"/>
-      <c r="R84" s="169" t="s">
+      <c r="H84" s="167"/>
+      <c r="I84" s="167"/>
+      <c r="J84" s="167"/>
+      <c r="K84" s="167"/>
+      <c r="L84" s="167"/>
+      <c r="M84" s="167"/>
+      <c r="N84" s="167"/>
+      <c r="O84" s="167"/>
+      <c r="P84" s="167"/>
+      <c r="Q84" s="167"/>
+      <c r="R84" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="S84" s="169"/>
-      <c r="T84" s="169"/>
-      <c r="U84" s="147"/>
-      <c r="V84" s="147"/>
-      <c r="W84" s="147"/>
-      <c r="X84" s="147"/>
+      <c r="S84" s="166"/>
+      <c r="T84" s="166"/>
+      <c r="U84" s="217"/>
+      <c r="V84" s="217"/>
+      <c r="W84" s="217"/>
+      <c r="X84" s="217"/>
       <c r="Y84" s="57"/>
       <c r="Z84" s="18"/>
       <c r="AA84" s="152"/>
@@ -7282,28 +7153,28 @@
       <c r="D85" s="29"/>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
-      <c r="G85" s="177" t="s">
+      <c r="G85" s="174" t="s">
         <v>212</v>
       </c>
-      <c r="H85" s="177"/>
-      <c r="I85" s="177"/>
-      <c r="J85" s="177"/>
-      <c r="K85" s="177"/>
-      <c r="L85" s="177"/>
-      <c r="M85" s="177"/>
-      <c r="N85" s="177"/>
-      <c r="O85" s="177"/>
-      <c r="P85" s="177"/>
-      <c r="Q85" s="177"/>
-      <c r="R85" s="158" t="s">
+      <c r="H85" s="174"/>
+      <c r="I85" s="174"/>
+      <c r="J85" s="174"/>
+      <c r="K85" s="174"/>
+      <c r="L85" s="174"/>
+      <c r="M85" s="174"/>
+      <c r="N85" s="174"/>
+      <c r="O85" s="174"/>
+      <c r="P85" s="174"/>
+      <c r="Q85" s="174"/>
+      <c r="R85" s="161" t="s">
         <v>179</v>
       </c>
-      <c r="S85" s="158"/>
-      <c r="T85" s="158"/>
-      <c r="U85" s="146"/>
-      <c r="V85" s="146"/>
-      <c r="W85" s="146"/>
-      <c r="X85" s="146"/>
+      <c r="S85" s="161"/>
+      <c r="T85" s="161"/>
+      <c r="U85" s="218"/>
+      <c r="V85" s="218"/>
+      <c r="W85" s="218"/>
+      <c r="X85" s="218"/>
       <c r="Y85" s="4"/>
       <c r="Z85" s="3"/>
       <c r="AA85" s="152"/>
@@ -7339,28 +7210,28 @@
       <c r="D86" s="90"/>
       <c r="E86" s="90"/>
       <c r="F86" s="90"/>
-      <c r="G86" s="170" t="s">
+      <c r="G86" s="167" t="s">
         <v>213</v>
       </c>
-      <c r="H86" s="170"/>
-      <c r="I86" s="170"/>
-      <c r="J86" s="170"/>
-      <c r="K86" s="170"/>
-      <c r="L86" s="170"/>
-      <c r="M86" s="170"/>
-      <c r="N86" s="170"/>
-      <c r="O86" s="170"/>
-      <c r="P86" s="170"/>
-      <c r="Q86" s="170"/>
-      <c r="R86" s="169" t="s">
+      <c r="H86" s="167"/>
+      <c r="I86" s="167"/>
+      <c r="J86" s="167"/>
+      <c r="K86" s="167"/>
+      <c r="L86" s="167"/>
+      <c r="M86" s="167"/>
+      <c r="N86" s="167"/>
+      <c r="O86" s="167"/>
+      <c r="P86" s="167"/>
+      <c r="Q86" s="167"/>
+      <c r="R86" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="S86" s="169"/>
-      <c r="T86" s="169"/>
-      <c r="U86" s="147"/>
-      <c r="V86" s="147"/>
-      <c r="W86" s="147"/>
-      <c r="X86" s="147"/>
+      <c r="S86" s="166"/>
+      <c r="T86" s="166"/>
+      <c r="U86" s="217"/>
+      <c r="V86" s="217"/>
+      <c r="W86" s="217"/>
+      <c r="X86" s="217"/>
       <c r="Y86" s="57"/>
       <c r="Z86" s="18"/>
       <c r="AA86" s="152"/>
@@ -7395,28 +7266,28 @@
       <c r="D87" s="77"/>
       <c r="E87" s="77"/>
       <c r="F87" s="77"/>
-      <c r="G87" s="177" t="s">
+      <c r="G87" s="174" t="s">
         <v>214</v>
       </c>
-      <c r="H87" s="177"/>
-      <c r="I87" s="177"/>
-      <c r="J87" s="177"/>
-      <c r="K87" s="177"/>
-      <c r="L87" s="177"/>
-      <c r="M87" s="177"/>
-      <c r="N87" s="177"/>
-      <c r="O87" s="177"/>
-      <c r="P87" s="177"/>
-      <c r="Q87" s="177"/>
-      <c r="R87" s="158" t="s">
+      <c r="H87" s="174"/>
+      <c r="I87" s="174"/>
+      <c r="J87" s="174"/>
+      <c r="K87" s="174"/>
+      <c r="L87" s="174"/>
+      <c r="M87" s="174"/>
+      <c r="N87" s="174"/>
+      <c r="O87" s="174"/>
+      <c r="P87" s="174"/>
+      <c r="Q87" s="174"/>
+      <c r="R87" s="161" t="s">
         <v>180</v>
       </c>
-      <c r="S87" s="158"/>
-      <c r="T87" s="158"/>
-      <c r="U87" s="146"/>
-      <c r="V87" s="146"/>
-      <c r="W87" s="146"/>
-      <c r="X87" s="146"/>
+      <c r="S87" s="161"/>
+      <c r="T87" s="161"/>
+      <c r="U87" s="218"/>
+      <c r="V87" s="218"/>
+      <c r="W87" s="218"/>
+      <c r="X87" s="218"/>
       <c r="Y87" s="68"/>
       <c r="AA87" s="152"/>
       <c r="AB87" s="153"/>
@@ -7451,28 +7322,28 @@
       <c r="D88" s="90"/>
       <c r="E88" s="90"/>
       <c r="F88" s="90"/>
-      <c r="G88" s="170" t="s">
+      <c r="G88" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="H88" s="170"/>
-      <c r="I88" s="170"/>
-      <c r="J88" s="170"/>
-      <c r="K88" s="170"/>
-      <c r="L88" s="170"/>
-      <c r="M88" s="170"/>
-      <c r="N88" s="170"/>
-      <c r="O88" s="170"/>
-      <c r="P88" s="170"/>
-      <c r="Q88" s="170"/>
-      <c r="R88" s="169" t="s">
+      <c r="H88" s="167"/>
+      <c r="I88" s="167"/>
+      <c r="J88" s="167"/>
+      <c r="K88" s="167"/>
+      <c r="L88" s="167"/>
+      <c r="M88" s="167"/>
+      <c r="N88" s="167"/>
+      <c r="O88" s="167"/>
+      <c r="P88" s="167"/>
+      <c r="Q88" s="167"/>
+      <c r="R88" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="S88" s="169"/>
-      <c r="T88" s="169"/>
-      <c r="U88" s="147"/>
-      <c r="V88" s="147"/>
-      <c r="W88" s="147"/>
-      <c r="X88" s="147"/>
+      <c r="S88" s="166"/>
+      <c r="T88" s="166"/>
+      <c r="U88" s="217"/>
+      <c r="V88" s="217"/>
+      <c r="W88" s="217"/>
+      <c r="X88" s="217"/>
       <c r="Y88" s="57"/>
       <c r="Z88" s="69"/>
       <c r="AA88" s="152"/>
@@ -7508,28 +7379,28 @@
       <c r="D89" s="29"/>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
-      <c r="G89" s="177" t="s">
+      <c r="G89" s="174" t="s">
         <v>216</v>
       </c>
-      <c r="H89" s="177"/>
-      <c r="I89" s="177"/>
-      <c r="J89" s="177"/>
-      <c r="K89" s="177"/>
-      <c r="L89" s="177"/>
-      <c r="M89" s="177"/>
-      <c r="N89" s="177"/>
-      <c r="O89" s="177"/>
-      <c r="P89" s="177"/>
-      <c r="Q89" s="177"/>
-      <c r="R89" s="158" t="s">
+      <c r="H89" s="174"/>
+      <c r="I89" s="174"/>
+      <c r="J89" s="174"/>
+      <c r="K89" s="174"/>
+      <c r="L89" s="174"/>
+      <c r="M89" s="174"/>
+      <c r="N89" s="174"/>
+      <c r="O89" s="174"/>
+      <c r="P89" s="174"/>
+      <c r="Q89" s="174"/>
+      <c r="R89" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="S89" s="158"/>
-      <c r="T89" s="158"/>
-      <c r="U89" s="146"/>
-      <c r="V89" s="146"/>
-      <c r="W89" s="146"/>
-      <c r="X89" s="146"/>
+      <c r="S89" s="161"/>
+      <c r="T89" s="161"/>
+      <c r="U89" s="218"/>
+      <c r="V89" s="218"/>
+      <c r="W89" s="218"/>
+      <c r="X89" s="218"/>
       <c r="Y89" s="4"/>
       <c r="Z89" s="3"/>
       <c r="AA89" s="155"/>
@@ -7565,24 +7436,24 @@
       <c r="D90" s="101"/>
       <c r="E90" s="101"/>
       <c r="F90" s="101"/>
-      <c r="G90" s="178"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="178"/>
-      <c r="J90" s="178"/>
-      <c r="K90" s="178"/>
-      <c r="L90" s="178"/>
-      <c r="M90" s="178"/>
-      <c r="N90" s="178"/>
-      <c r="O90" s="178"/>
-      <c r="P90" s="178"/>
-      <c r="Q90" s="178"/>
-      <c r="R90" s="176"/>
-      <c r="S90" s="176"/>
-      <c r="T90" s="176"/>
-      <c r="U90" s="179"/>
-      <c r="V90" s="179"/>
-      <c r="W90" s="179"/>
-      <c r="X90" s="179"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="175"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="175"/>
+      <c r="K90" s="175"/>
+      <c r="L90" s="175"/>
+      <c r="M90" s="175"/>
+      <c r="N90" s="175"/>
+      <c r="O90" s="175"/>
+      <c r="P90" s="175"/>
+      <c r="Q90" s="175"/>
+      <c r="R90" s="173"/>
+      <c r="S90" s="173"/>
+      <c r="T90" s="173"/>
+      <c r="U90" s="176"/>
+      <c r="V90" s="176"/>
+      <c r="W90" s="176"/>
+      <c r="X90" s="176"/>
       <c r="Y90" s="102"/>
       <c r="Z90" s="103"/>
       <c r="AA90" s="96"/>
@@ -7601,12 +7472,12 @@
       <c r="AN90" s="104"/>
       <c r="AO90" s="105"/>
       <c r="AP90" s="103"/>
-      <c r="AQ90" s="201"/>
-      <c r="AR90" s="201"/>
-      <c r="AS90" s="201"/>
+      <c r="AQ90" s="194"/>
+      <c r="AR90" s="194"/>
+      <c r="AS90" s="194"/>
       <c r="AT90" s="105"/>
-      <c r="AU90" s="201"/>
-      <c r="AV90" s="201"/>
+      <c r="AU90" s="194"/>
+      <c r="AV90" s="194"/>
       <c r="AW90" s="103"/>
       <c r="AX90" s="105"/>
       <c r="AY90" s="97"/>
@@ -7616,24 +7487,24 @@
       <c r="D91" s="76"/>
       <c r="E91" s="76"/>
       <c r="F91" s="76"/>
-      <c r="G91" s="173"/>
-      <c r="H91" s="173"/>
-      <c r="I91" s="173"/>
-      <c r="J91" s="173"/>
-      <c r="K91" s="173"/>
-      <c r="L91" s="173"/>
-      <c r="M91" s="173"/>
-      <c r="N91" s="173"/>
-      <c r="O91" s="173"/>
-      <c r="P91" s="173"/>
-      <c r="Q91" s="174"/>
-      <c r="R91" s="174"/>
-      <c r="S91" s="174"/>
-      <c r="T91" s="174"/>
-      <c r="U91" s="175"/>
-      <c r="V91" s="175"/>
-      <c r="W91" s="175"/>
-      <c r="X91" s="175"/>
+      <c r="G91" s="170"/>
+      <c r="H91" s="170"/>
+      <c r="I91" s="170"/>
+      <c r="J91" s="170"/>
+      <c r="K91" s="170"/>
+      <c r="L91" s="170"/>
+      <c r="M91" s="170"/>
+      <c r="N91" s="170"/>
+      <c r="O91" s="170"/>
+      <c r="P91" s="170"/>
+      <c r="Q91" s="171"/>
+      <c r="R91" s="171"/>
+      <c r="S91" s="171"/>
+      <c r="T91" s="171"/>
+      <c r="U91" s="172"/>
+      <c r="V91" s="172"/>
+      <c r="W91" s="172"/>
+      <c r="X91" s="172"/>
       <c r="AF91" s="66"/>
       <c r="AG91" s="66"/>
       <c r="AH91" s="66"/>
@@ -7644,12 +7515,12 @@
       <c r="AM91" s="66"/>
       <c r="AN91" s="66"/>
       <c r="AO91" s="9"/>
-      <c r="AQ91" s="159"/>
-      <c r="AR91" s="159"/>
-      <c r="AS91" s="159"/>
+      <c r="AQ91" s="158"/>
+      <c r="AR91" s="158"/>
+      <c r="AS91" s="158"/>
       <c r="AT91" s="9"/>
-      <c r="AU91" s="159"/>
-      <c r="AV91" s="159"/>
+      <c r="AU91" s="158"/>
+      <c r="AV91" s="158"/>
       <c r="AX91" s="9"/>
     </row>
     <row r="92" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -7685,9 +7556,9 @@
       <c r="AM92" s="66"/>
       <c r="AN92" s="66"/>
       <c r="AO92" s="9"/>
-      <c r="AQ92" s="159"/>
-      <c r="AR92" s="159"/>
-      <c r="AS92" s="159"/>
+      <c r="AQ92" s="158"/>
+      <c r="AR92" s="158"/>
+      <c r="AS92" s="158"/>
       <c r="AT92" s="9"/>
       <c r="AU92" s="9"/>
       <c r="AV92" s="9"/>
@@ -7716,17 +7587,17 @@
       <c r="V93" s="106"/>
       <c r="W93" s="106"/>
       <c r="X93" s="106"/>
-      <c r="AA93" s="202"/>
-      <c r="AB93" s="202"/>
-      <c r="AC93" s="202"/>
-      <c r="AD93" s="202"/>
+      <c r="AA93" s="206"/>
+      <c r="AB93" s="206"/>
+      <c r="AC93" s="206"/>
+      <c r="AD93" s="206"/>
       <c r="AE93" s="77"/>
       <c r="AO93" s="77"/>
-      <c r="AQ93" s="159"/>
-      <c r="AR93" s="159"/>
-      <c r="AS93" s="159"/>
-      <c r="AU93" s="202"/>
-      <c r="AV93" s="202"/>
+      <c r="AQ93" s="158"/>
+      <c r="AR93" s="158"/>
+      <c r="AS93" s="158"/>
+      <c r="AU93" s="206"/>
+      <c r="AV93" s="206"/>
       <c r="AW93" s="106"/>
       <c r="AX93" s="106"/>
     </row>
@@ -7746,28 +7617,28 @@
     <row r="95" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="29"/>
-      <c r="C95" s="208"/>
-      <c r="D95" s="208"/>
-      <c r="E95" s="208"/>
-      <c r="F95" s="208"/>
-      <c r="G95" s="208"/>
-      <c r="H95" s="208"/>
-      <c r="I95" s="208"/>
-      <c r="J95" s="208"/>
-      <c r="K95" s="208"/>
-      <c r="L95" s="208"/>
-      <c r="M95" s="208"/>
-      <c r="N95" s="208"/>
-      <c r="O95" s="208"/>
-      <c r="P95" s="208"/>
-      <c r="Q95" s="208"/>
-      <c r="R95" s="208"/>
-      <c r="S95" s="208"/>
-      <c r="T95" s="208"/>
-      <c r="U95" s="208"/>
-      <c r="V95" s="208"/>
-      <c r="W95" s="208"/>
-      <c r="X95" s="208"/>
+      <c r="C95" s="197"/>
+      <c r="D95" s="197"/>
+      <c r="E95" s="197"/>
+      <c r="F95" s="197"/>
+      <c r="G95" s="197"/>
+      <c r="H95" s="197"/>
+      <c r="I95" s="197"/>
+      <c r="J95" s="197"/>
+      <c r="K95" s="197"/>
+      <c r="L95" s="197"/>
+      <c r="M95" s="197"/>
+      <c r="N95" s="197"/>
+      <c r="O95" s="197"/>
+      <c r="P95" s="197"/>
+      <c r="Q95" s="197"/>
+      <c r="R95" s="197"/>
+      <c r="S95" s="197"/>
+      <c r="T95" s="197"/>
+      <c r="U95" s="197"/>
+      <c r="V95" s="197"/>
+      <c r="W95" s="197"/>
+      <c r="X95" s="197"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="29"/>
@@ -7786,12 +7657,12 @@
       <c r="AN95" s="29"/>
       <c r="AO95" s="3"/>
       <c r="AP95" s="3"/>
-      <c r="AQ95" s="208"/>
-      <c r="AR95" s="208"/>
-      <c r="AS95" s="208"/>
-      <c r="AT95" s="208"/>
-      <c r="AU95" s="208"/>
-      <c r="AV95" s="208"/>
+      <c r="AQ95" s="197"/>
+      <c r="AR95" s="197"/>
+      <c r="AS95" s="197"/>
+      <c r="AT95" s="197"/>
+      <c r="AU95" s="197"/>
+      <c r="AV95" s="197"/>
       <c r="AW95" s="91"/>
       <c r="AX95" s="91"/>
       <c r="AY95" s="3"/>
@@ -7839,12 +7710,12 @@
       <c r="AN96" s="39"/>
       <c r="AO96" s="39"/>
       <c r="AP96" s="39"/>
-      <c r="AQ96" s="208"/>
-      <c r="AR96" s="208"/>
-      <c r="AS96" s="208"/>
-      <c r="AT96" s="208"/>
-      <c r="AU96" s="208"/>
-      <c r="AV96" s="208"/>
+      <c r="AQ96" s="197"/>
+      <c r="AR96" s="197"/>
+      <c r="AS96" s="197"/>
+      <c r="AT96" s="197"/>
+      <c r="AU96" s="197"/>
+      <c r="AV96" s="197"/>
       <c r="AW96" s="91"/>
       <c r="AX96" s="91"/>
       <c r="AY96" s="3"/>
@@ -7891,9 +7762,9 @@
       <c r="AN97" s="39"/>
       <c r="AO97" s="39"/>
       <c r="AP97" s="39"/>
-      <c r="AQ97" s="164"/>
-      <c r="AR97" s="164"/>
-      <c r="AS97" s="164"/>
+      <c r="AQ97" s="163"/>
+      <c r="AR97" s="163"/>
+      <c r="AS97" s="163"/>
       <c r="AT97" s="11"/>
       <c r="AU97" s="11"/>
       <c r="AV97" s="11"/>
@@ -7943,9 +7814,9 @@
       <c r="AN98" s="39"/>
       <c r="AO98" s="39"/>
       <c r="AP98" s="39"/>
-      <c r="AQ98" s="164"/>
-      <c r="AR98" s="164"/>
-      <c r="AS98" s="164"/>
+      <c r="AQ98" s="163"/>
+      <c r="AR98" s="163"/>
+      <c r="AS98" s="163"/>
       <c r="AT98" s="11"/>
       <c r="AU98" s="11"/>
       <c r="AV98" s="11"/>
@@ -7955,28 +7826,28 @@
     </row>
     <row r="99" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="29"/>
-      <c r="C99" s="159"/>
-      <c r="D99" s="159"/>
-      <c r="E99" s="159"/>
-      <c r="F99" s="159"/>
-      <c r="G99" s="159"/>
-      <c r="H99" s="159"/>
-      <c r="I99" s="159"/>
-      <c r="J99" s="159"/>
-      <c r="K99" s="159"/>
-      <c r="L99" s="159"/>
-      <c r="M99" s="159"/>
-      <c r="N99" s="159"/>
-      <c r="O99" s="159"/>
-      <c r="P99" s="159"/>
-      <c r="Q99" s="159"/>
-      <c r="R99" s="159"/>
-      <c r="S99" s="159"/>
-      <c r="T99" s="159"/>
-      <c r="U99" s="159"/>
-      <c r="V99" s="159"/>
-      <c r="W99" s="159"/>
-      <c r="X99" s="159"/>
+      <c r="C99" s="158"/>
+      <c r="D99" s="158"/>
+      <c r="E99" s="158"/>
+      <c r="F99" s="158"/>
+      <c r="G99" s="158"/>
+      <c r="H99" s="158"/>
+      <c r="I99" s="158"/>
+      <c r="J99" s="158"/>
+      <c r="K99" s="158"/>
+      <c r="L99" s="158"/>
+      <c r="M99" s="158"/>
+      <c r="N99" s="158"/>
+      <c r="O99" s="158"/>
+      <c r="P99" s="158"/>
+      <c r="Q99" s="158"/>
+      <c r="R99" s="158"/>
+      <c r="S99" s="158"/>
+      <c r="T99" s="158"/>
+      <c r="U99" s="158"/>
+      <c r="V99" s="158"/>
+      <c r="W99" s="158"/>
+      <c r="X99" s="158"/>
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
@@ -7994,9 +7865,9 @@
       <c r="AN99" s="39"/>
       <c r="AO99" s="39"/>
       <c r="AP99" s="39"/>
-      <c r="AQ99" s="164"/>
-      <c r="AR99" s="164"/>
-      <c r="AS99" s="164"/>
+      <c r="AQ99" s="163"/>
+      <c r="AR99" s="163"/>
+      <c r="AS99" s="163"/>
       <c r="AT99" s="11"/>
       <c r="AU99" s="11"/>
       <c r="AV99" s="11"/>
@@ -8004,28 +7875,28 @@
     </row>
     <row r="100" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="29"/>
-      <c r="C100" s="159"/>
-      <c r="D100" s="159"/>
-      <c r="E100" s="159"/>
-      <c r="F100" s="159"/>
-      <c r="G100" s="159"/>
-      <c r="H100" s="159"/>
-      <c r="I100" s="159"/>
-      <c r="J100" s="159"/>
-      <c r="K100" s="159"/>
-      <c r="L100" s="159"/>
-      <c r="M100" s="159"/>
-      <c r="N100" s="159"/>
-      <c r="O100" s="159"/>
-      <c r="P100" s="159"/>
-      <c r="Q100" s="159"/>
-      <c r="R100" s="159"/>
-      <c r="S100" s="159"/>
-      <c r="T100" s="159"/>
-      <c r="U100" s="159"/>
-      <c r="V100" s="159"/>
-      <c r="W100" s="159"/>
-      <c r="X100" s="159"/>
+      <c r="C100" s="158"/>
+      <c r="D100" s="158"/>
+      <c r="E100" s="158"/>
+      <c r="F100" s="158"/>
+      <c r="G100" s="158"/>
+      <c r="H100" s="158"/>
+      <c r="I100" s="158"/>
+      <c r="J100" s="158"/>
+      <c r="K100" s="158"/>
+      <c r="L100" s="158"/>
+      <c r="M100" s="158"/>
+      <c r="N100" s="158"/>
+      <c r="O100" s="158"/>
+      <c r="P100" s="158"/>
+      <c r="Q100" s="158"/>
+      <c r="R100" s="158"/>
+      <c r="S100" s="158"/>
+      <c r="T100" s="158"/>
+      <c r="U100" s="158"/>
+      <c r="V100" s="158"/>
+      <c r="W100" s="158"/>
+      <c r="X100" s="158"/>
       <c r="Z100" s="3"/>
       <c r="AA100" s="29"/>
       <c r="AB100" s="3"/>
@@ -8043,9 +7914,9 @@
       <c r="AN100" s="39"/>
       <c r="AO100" s="39"/>
       <c r="AP100" s="39"/>
-      <c r="AQ100" s="164"/>
-      <c r="AR100" s="164"/>
-      <c r="AS100" s="164"/>
+      <c r="AQ100" s="163"/>
+      <c r="AR100" s="163"/>
+      <c r="AS100" s="163"/>
       <c r="AT100" s="11"/>
       <c r="AU100" s="11"/>
       <c r="AV100" s="11"/>
@@ -8056,28 +7927,28 @@
     <row r="101" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="29"/>
-      <c r="C101" s="159"/>
-      <c r="D101" s="159"/>
-      <c r="E101" s="159"/>
-      <c r="F101" s="159"/>
-      <c r="G101" s="159"/>
-      <c r="H101" s="159"/>
-      <c r="I101" s="159"/>
-      <c r="J101" s="159"/>
-      <c r="K101" s="159"/>
-      <c r="L101" s="159"/>
-      <c r="M101" s="159"/>
-      <c r="N101" s="159"/>
-      <c r="O101" s="159"/>
-      <c r="P101" s="159"/>
-      <c r="Q101" s="159"/>
-      <c r="R101" s="159"/>
-      <c r="S101" s="159"/>
-      <c r="T101" s="159"/>
-      <c r="U101" s="159"/>
-      <c r="V101" s="159"/>
-      <c r="W101" s="159"/>
-      <c r="X101" s="159"/>
+      <c r="C101" s="158"/>
+      <c r="D101" s="158"/>
+      <c r="E101" s="158"/>
+      <c r="F101" s="158"/>
+      <c r="G101" s="158"/>
+      <c r="H101" s="158"/>
+      <c r="I101" s="158"/>
+      <c r="J101" s="158"/>
+      <c r="K101" s="158"/>
+      <c r="L101" s="158"/>
+      <c r="M101" s="158"/>
+      <c r="N101" s="158"/>
+      <c r="O101" s="158"/>
+      <c r="P101" s="158"/>
+      <c r="Q101" s="158"/>
+      <c r="R101" s="158"/>
+      <c r="S101" s="158"/>
+      <c r="T101" s="158"/>
+      <c r="U101" s="158"/>
+      <c r="V101" s="158"/>
+      <c r="W101" s="158"/>
+      <c r="X101" s="158"/>
       <c r="Y101" s="29"/>
       <c r="Z101" s="3"/>
       <c r="AB101" s="39"/>
@@ -8108,28 +7979,28 @@
     <row r="102" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="29"/>
-      <c r="C102" s="159"/>
-      <c r="D102" s="159"/>
-      <c r="E102" s="159"/>
-      <c r="F102" s="159"/>
-      <c r="G102" s="159"/>
-      <c r="H102" s="159"/>
-      <c r="I102" s="159"/>
-      <c r="J102" s="159"/>
-      <c r="K102" s="159"/>
-      <c r="L102" s="159"/>
-      <c r="M102" s="159"/>
-      <c r="N102" s="159"/>
-      <c r="O102" s="159"/>
-      <c r="P102" s="159"/>
-      <c r="Q102" s="159"/>
-      <c r="R102" s="159"/>
-      <c r="S102" s="159"/>
-      <c r="T102" s="159"/>
-      <c r="U102" s="159"/>
-      <c r="V102" s="159"/>
-      <c r="W102" s="159"/>
-      <c r="X102" s="159"/>
+      <c r="C102" s="158"/>
+      <c r="D102" s="158"/>
+      <c r="E102" s="158"/>
+      <c r="F102" s="158"/>
+      <c r="G102" s="158"/>
+      <c r="H102" s="158"/>
+      <c r="I102" s="158"/>
+      <c r="J102" s="158"/>
+      <c r="K102" s="158"/>
+      <c r="L102" s="158"/>
+      <c r="M102" s="158"/>
+      <c r="N102" s="158"/>
+      <c r="O102" s="158"/>
+      <c r="P102" s="158"/>
+      <c r="Q102" s="158"/>
+      <c r="R102" s="158"/>
+      <c r="S102" s="158"/>
+      <c r="T102" s="158"/>
+      <c r="U102" s="158"/>
+      <c r="V102" s="158"/>
+      <c r="W102" s="158"/>
+      <c r="X102" s="158"/>
       <c r="Y102" s="29"/>
       <c r="Z102" s="3"/>
       <c r="AA102" s="29"/>
@@ -8148,9 +8019,9 @@
       <c r="AN102" s="39"/>
       <c r="AO102" s="39"/>
       <c r="AP102" s="39"/>
-      <c r="AQ102" s="164"/>
-      <c r="AR102" s="164"/>
-      <c r="AS102" s="164"/>
+      <c r="AQ102" s="163"/>
+      <c r="AR102" s="163"/>
+      <c r="AS102" s="163"/>
       <c r="AT102" s="11"/>
       <c r="AU102" s="11"/>
       <c r="AV102" s="11"/>
@@ -8161,28 +8032,28 @@
     <row r="103" spans="1:51" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="29"/>
-      <c r="C103" s="173"/>
-      <c r="D103" s="173"/>
-      <c r="E103" s="173"/>
-      <c r="F103" s="173"/>
-      <c r="G103" s="173"/>
-      <c r="H103" s="173"/>
-      <c r="I103" s="173"/>
-      <c r="J103" s="173"/>
-      <c r="K103" s="173"/>
-      <c r="L103" s="173"/>
-      <c r="M103" s="173"/>
-      <c r="N103" s="173"/>
-      <c r="O103" s="173"/>
-      <c r="P103" s="173"/>
-      <c r="Q103" s="173"/>
-      <c r="R103" s="173"/>
-      <c r="S103" s="173"/>
-      <c r="T103" s="173"/>
-      <c r="U103" s="173"/>
-      <c r="V103" s="173"/>
-      <c r="W103" s="173"/>
-      <c r="X103" s="173"/>
+      <c r="C103" s="170"/>
+      <c r="D103" s="170"/>
+      <c r="E103" s="170"/>
+      <c r="F103" s="170"/>
+      <c r="G103" s="170"/>
+      <c r="H103" s="170"/>
+      <c r="I103" s="170"/>
+      <c r="J103" s="170"/>
+      <c r="K103" s="170"/>
+      <c r="L103" s="170"/>
+      <c r="M103" s="170"/>
+      <c r="N103" s="170"/>
+      <c r="O103" s="170"/>
+      <c r="P103" s="170"/>
+      <c r="Q103" s="170"/>
+      <c r="R103" s="170"/>
+      <c r="S103" s="170"/>
+      <c r="T103" s="170"/>
+      <c r="U103" s="170"/>
+      <c r="V103" s="170"/>
+      <c r="W103" s="170"/>
+      <c r="X103" s="170"/>
       <c r="Y103" s="29"/>
       <c r="Z103" s="3"/>
       <c r="AA103" s="39"/>
@@ -8201,9 +8072,9 @@
       <c r="AN103" s="39"/>
       <c r="AO103" s="39"/>
       <c r="AP103" s="11"/>
-      <c r="AQ103" s="164"/>
-      <c r="AR103" s="164"/>
-      <c r="AS103" s="164"/>
+      <c r="AQ103" s="163"/>
+      <c r="AR103" s="163"/>
+      <c r="AS103" s="163"/>
       <c r="AT103" s="11"/>
       <c r="AU103" s="11"/>
       <c r="AV103" s="11"/>
@@ -8281,6 +8152,7 @@
     <mergeCell ref="G59:Q59"/>
     <mergeCell ref="C59:F59"/>
     <mergeCell ref="G60:Q60"/>
+    <mergeCell ref="C50:F50"/>
     <mergeCell ref="C64:F64"/>
     <mergeCell ref="AU48:AV48"/>
     <mergeCell ref="AA58:AX58"/>
@@ -8339,6 +8211,20 @@
     <mergeCell ref="AU91:AV91"/>
     <mergeCell ref="U58:W58"/>
     <mergeCell ref="U80:X80"/>
+    <mergeCell ref="AQ93:AS93"/>
+    <mergeCell ref="AQ97:AS97"/>
+    <mergeCell ref="AU93:AV93"/>
+    <mergeCell ref="U76:X76"/>
+    <mergeCell ref="U77:X77"/>
+    <mergeCell ref="U63:X63"/>
+    <mergeCell ref="U67:X67"/>
+    <mergeCell ref="U66:X66"/>
+    <mergeCell ref="U72:X72"/>
+    <mergeCell ref="U75:X75"/>
+    <mergeCell ref="U74:X74"/>
+    <mergeCell ref="U65:X65"/>
+    <mergeCell ref="U68:X68"/>
+    <mergeCell ref="U69:X69"/>
     <mergeCell ref="AE1:AM1"/>
     <mergeCell ref="AQ10:AX10"/>
     <mergeCell ref="AQ8:AX8"/>
@@ -8348,21 +8234,27 @@
     <mergeCell ref="AQ5:AX5"/>
     <mergeCell ref="AE8:AI8"/>
     <mergeCell ref="AW38:AY38"/>
-    <mergeCell ref="AQ93:AS93"/>
-    <mergeCell ref="AQ97:AS97"/>
-    <mergeCell ref="AU93:AV93"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="AQ3:AX3"/>
-    <mergeCell ref="AQ47:AS47"/>
-    <mergeCell ref="AQ46:AS46"/>
-    <mergeCell ref="AQ42:AS42"/>
-    <mergeCell ref="AQ44:AS44"/>
-    <mergeCell ref="AQ43:AS43"/>
+    <mergeCell ref="AW40:AY40"/>
+    <mergeCell ref="AQ34:AX34"/>
+    <mergeCell ref="AQ35:AX35"/>
+    <mergeCell ref="AQ33:AX33"/>
+    <mergeCell ref="AQ36:AX36"/>
+    <mergeCell ref="AQ40:AS40"/>
     <mergeCell ref="AQ51:AS51"/>
     <mergeCell ref="AQ65:AS65"/>
     <mergeCell ref="AQ57:AS57"/>
     <mergeCell ref="AT96:AV96"/>
-    <mergeCell ref="C17:Z17"/>
+    <mergeCell ref="AT64:AV64"/>
+    <mergeCell ref="AU68:AV68"/>
+    <mergeCell ref="AU77:AV77"/>
+    <mergeCell ref="AU73:AV73"/>
+    <mergeCell ref="AU72:AV72"/>
+    <mergeCell ref="AU70:AV70"/>
+    <mergeCell ref="AQ66:AS66"/>
+    <mergeCell ref="AT66:AV66"/>
+    <mergeCell ref="AT65:AV65"/>
     <mergeCell ref="C16:Z16"/>
     <mergeCell ref="P12:Z12"/>
     <mergeCell ref="AB17:AX17"/>
@@ -8386,8 +8278,7 @@
     <mergeCell ref="G84:Q84"/>
     <mergeCell ref="G85:Q85"/>
     <mergeCell ref="G86:Q86"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="AQ47:AS47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="C43:F43"/>
@@ -8410,6 +8301,8 @@
     <mergeCell ref="AB15:AX15"/>
     <mergeCell ref="C19:M19"/>
     <mergeCell ref="N19:AX19"/>
+    <mergeCell ref="AW39:AY39"/>
+    <mergeCell ref="C17:Z17"/>
     <mergeCell ref="U52:X52"/>
     <mergeCell ref="R58:T58"/>
     <mergeCell ref="R59:T59"/>
@@ -8434,13 +8327,6 @@
     <mergeCell ref="U59:W59"/>
     <mergeCell ref="U57:W57"/>
     <mergeCell ref="U55:X55"/>
-    <mergeCell ref="AW39:AY39"/>
-    <mergeCell ref="AW40:AY40"/>
-    <mergeCell ref="AQ34:AX34"/>
-    <mergeCell ref="AQ35:AX35"/>
-    <mergeCell ref="AQ33:AX33"/>
-    <mergeCell ref="AQ36:AX36"/>
-    <mergeCell ref="AQ40:AS40"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="G42:P42"/>
@@ -8453,6 +8339,12 @@
     <mergeCell ref="U46:X46"/>
     <mergeCell ref="U45:X45"/>
     <mergeCell ref="G47:Q47"/>
+    <mergeCell ref="AQ45:AS45"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="AQ46:AS46"/>
+    <mergeCell ref="AQ42:AS42"/>
+    <mergeCell ref="AQ44:AS44"/>
+    <mergeCell ref="AQ43:AS43"/>
     <mergeCell ref="R84:T84"/>
     <mergeCell ref="R85:T85"/>
     <mergeCell ref="G75:Q75"/>
@@ -8507,25 +8399,7 @@
     <mergeCell ref="R78:T78"/>
     <mergeCell ref="R80:T80"/>
     <mergeCell ref="R81:T81"/>
-    <mergeCell ref="AT64:AV64"/>
-    <mergeCell ref="U76:X76"/>
-    <mergeCell ref="U77:X77"/>
-    <mergeCell ref="U63:X63"/>
-    <mergeCell ref="U67:X67"/>
-    <mergeCell ref="U66:X66"/>
-    <mergeCell ref="U72:X72"/>
-    <mergeCell ref="AU68:AV68"/>
-    <mergeCell ref="AU77:AV77"/>
-    <mergeCell ref="AU73:AV73"/>
-    <mergeCell ref="AU72:AV72"/>
-    <mergeCell ref="AU70:AV70"/>
-    <mergeCell ref="U75:X75"/>
-    <mergeCell ref="U74:X74"/>
-    <mergeCell ref="AQ66:AS66"/>
-    <mergeCell ref="U65:X65"/>
-    <mergeCell ref="U68:X68"/>
     <mergeCell ref="R79:T79"/>
-    <mergeCell ref="AQ45:AS45"/>
     <mergeCell ref="R41:X41"/>
     <mergeCell ref="AU45:AV45"/>
     <mergeCell ref="AU50:AV50"/>
@@ -8545,9 +8419,6 @@
     <mergeCell ref="R49:T49"/>
     <mergeCell ref="R47:T47"/>
     <mergeCell ref="U44:X44"/>
-    <mergeCell ref="U69:X69"/>
-    <mergeCell ref="AT66:AV66"/>
-    <mergeCell ref="AT65:AV65"/>
     <mergeCell ref="U81:X81"/>
     <mergeCell ref="U82:X82"/>
     <mergeCell ref="U83:X83"/>
@@ -8587,22 +8458,22 @@
       <c r="A1" s="131" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="213" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="213"/>
+      <c r="O1" s="213"/>
       <c r="P1" s="132"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -8768,38 +8639,38 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="137"/>
-      <c r="B16" s="219"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="219"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
-      <c r="M16" s="219"/>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="214"/>
+      <c r="I16" s="214"/>
+      <c r="J16" s="214"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
+      <c r="N16" s="214"/>
+      <c r="O16" s="214"/>
       <c r="P16" s="138"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="135"/>
-      <c r="B17" s="220"/>
-      <c r="C17" s="220"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="220"/>
-      <c r="H17" s="220"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="220"/>
-      <c r="L17" s="220"/>
-      <c r="M17" s="220"/>
-      <c r="N17" s="220"/>
-      <c r="O17" s="220"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="215"/>
+      <c r="L17" s="215"/>
+      <c r="M17" s="215"/>
+      <c r="N17" s="215"/>
+      <c r="O17" s="215"/>
       <c r="P17" s="136"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -8840,20 +8711,20 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="137"/>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="159"/>
       <c r="P20" s="138"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -8876,38 +8747,38 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="139"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
       <c r="P22" s="140"/>
     </row>
     <row r="23" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="143"/>
-      <c r="B23" s="217"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="217"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="217"/>
-      <c r="K23" s="217"/>
-      <c r="L23" s="217"/>
-      <c r="M23" s="217"/>
-      <c r="N23" s="217"/>
-      <c r="O23" s="217"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="212"/>
+      <c r="K23" s="212"/>
+      <c r="L23" s="212"/>
+      <c r="M23" s="212"/>
+      <c r="N23" s="212"/>
+      <c r="O23" s="212"/>
       <c r="P23" s="144"/>
     </row>
     <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9173,17 +9044,17 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A43BA621-C51F-499D-80DC-16FB1C993391}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="edf71ca1-bc7e-4563-998b-af3c025319bb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="45060f0b-9437-4fee-acb6-579e51229f5c"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="45060f0b-9437-4fee-acb6-579e51229f5c"/>
     <ds:schemaRef ds:uri="64766042-80e5-4cc9-ab07-4844c9ed691b"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
